--- a/Analytical test task/Data base.xlsx
+++ b/Analytical test task/Data base.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="384" windowWidth="19200" windowHeight="10200"/>
+    <workbookView xWindow="0" yWindow="384" windowWidth="19200" windowHeight="10200" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="List2" sheetId="2" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="59">
   <si>
     <t>Нагревальщик металла</t>
   </si>
@@ -216,13 +216,16 @@
     <t xml:space="preserve">Ссылка на файл с исходным кодом расчётов: </t>
   </si>
   <si>
-    <t xml:space="preserve">MSE по тестовой выборке составляет 8.993014319519535e-30. </t>
-  </si>
-  <si>
     <t>Таким образом выделены веса Линейной регрессии и иные константные величины</t>
   </si>
   <si>
     <t>Предварительные аналитические расчёты</t>
+  </si>
+  <si>
+    <t>Ссылка на файл с исходным кодом расчётов</t>
+  </si>
+  <si>
+    <t>MSE по тестовой выборке составляет 2.051038353574630e-30.</t>
   </si>
 </sst>
 </file>
@@ -233,10 +236,10 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[$-419]mmmm\ yyyy;@"/>
     <numFmt numFmtId="165" formatCode="#,##0_ ;\-#,##0\ "/>
-    <numFmt numFmtId="170" formatCode="0.00000"/>
-    <numFmt numFmtId="171" formatCode="0.000000000"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
+    <numFmt numFmtId="167" formatCode="0.000000000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -274,6 +277,15 @@
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -421,7 +433,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -442,8 +454,9 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -469,84 +482,88 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="20" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="20">
+  <cellStyles count="21">
+    <cellStyle name="Гиперссылка" xfId="20" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2 2" xfId="1"/>
     <cellStyle name="Обычный 2 3" xfId="2"/>
@@ -775,6 +792,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>967740</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>61659</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>125132</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3665220" y="2659380"/>
+          <a:ext cx="9647619" cy="4780952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1082,7 +1142,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R266"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -1112,18 +1172,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="I1" s="54" t="s">
-        <v>57</v>
-      </c>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
+      <c r="I1" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -1437,7 +1497,7 @@
         <v>343</v>
       </c>
       <c r="K7" s="13">
-        <f>(G87-G67)/50</f>
+        <f t="shared" ref="K7:K12" si="2">(G87-G67)/50</f>
         <v>8.3117647058823056</v>
       </c>
       <c r="L7" s="7">
@@ -1495,7 +1555,7 @@
         <v>343</v>
       </c>
       <c r="K8" s="13">
-        <f>(G88-G68)/50</f>
+        <f t="shared" si="2"/>
         <v>8.3117647058823056</v>
       </c>
       <c r="L8" s="7">
@@ -1553,7 +1613,7 @@
         <v>343</v>
       </c>
       <c r="K9" s="13">
-        <f>(G89-G69)/50</f>
+        <f t="shared" si="2"/>
         <v>8.3117647058823056</v>
       </c>
       <c r="L9" s="7">
@@ -1611,7 +1671,7 @@
         <v>1000</v>
       </c>
       <c r="K10" s="13">
-        <f>(G90-G70)/50</f>
+        <f t="shared" si="2"/>
         <v>12.976470588235316</v>
       </c>
       <c r="L10" s="7">
@@ -1669,7 +1729,7 @@
         <v>729</v>
       </c>
       <c r="K11" s="13">
-        <f>(G91-G71)/50</f>
+        <f t="shared" si="2"/>
         <v>11.188235294117694</v>
       </c>
       <c r="L11" s="7">
@@ -1727,7 +1787,7 @@
         <v>343</v>
       </c>
       <c r="K12" s="13">
-        <f>(G92-G72)/50</f>
+        <f t="shared" si="2"/>
         <v>8.3117647058823056</v>
       </c>
       <c r="L12" s="7">
@@ -4979,7 +5039,7 @@
         <v>8.3117647058823056</v>
       </c>
       <c r="L68" s="7">
-        <f t="shared" ref="L68:L131" si="2">K68-J68</f>
+        <f t="shared" ref="L68:L131" si="3">K68-J68</f>
         <v>-334.6882352941177</v>
       </c>
       <c r="M68" s="7" t="b">
@@ -4999,7 +5059,7 @@
         <v>138140</v>
       </c>
       <c r="R68" s="12" t="e">
-        <f t="shared" ref="R68:R131" si="3">N68-Q68</f>
+        <f t="shared" ref="R68:R131" si="4">N68-Q68</f>
         <v>#REF!</v>
       </c>
     </row>
@@ -5037,7 +5097,7 @@
         <v>8.3117647058823056</v>
       </c>
       <c r="L69" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-334.6882352941177</v>
       </c>
       <c r="M69" s="7" t="b">
@@ -5057,7 +5117,7 @@
         <v>136160</v>
       </c>
       <c r="R69" s="12" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -5095,7 +5155,7 @@
         <v>12.976470588235316</v>
       </c>
       <c r="L70" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-987.02352941176468</v>
       </c>
       <c r="M70" s="7" t="b">
@@ -5115,7 +5175,7 @@
         <v>375300</v>
       </c>
       <c r="R70" s="12" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -5153,7 +5213,7 @@
         <v>11.188235294117694</v>
       </c>
       <c r="L71" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-717.8117647058823</v>
       </c>
       <c r="M71" s="7" t="b">
@@ -5173,7 +5233,7 @@
         <v>277410</v>
       </c>
       <c r="R71" s="12" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -5211,7 +5271,7 @@
         <v>8.3117647058823056</v>
       </c>
       <c r="L72" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-334.6882352941177</v>
       </c>
       <c r="M72" s="7" t="b">
@@ -5231,7 +5291,7 @@
         <v>137420</v>
       </c>
       <c r="R72" s="12" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -5269,7 +5329,7 @@
         <v>12.976470588235316</v>
       </c>
       <c r="L73" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-987.02352941176468</v>
       </c>
       <c r="M73" s="7" t="b">
@@ -5289,7 +5349,7 @@
         <v>375300</v>
       </c>
       <c r="R73" s="12" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -5327,7 +5387,7 @@
         <v>11.188235294117694</v>
       </c>
       <c r="L74" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-717.8117647058823</v>
       </c>
       <c r="M74" s="7" t="b">
@@ -5347,7 +5407,7 @@
         <v>277410</v>
       </c>
       <c r="R74" s="12" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -5385,7 +5445,7 @@
         <v>8.3117647058823056</v>
       </c>
       <c r="L75" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-334.6882352941177</v>
       </c>
       <c r="M75" s="7" t="b">
@@ -5405,7 +5465,7 @@
         <v>137420</v>
       </c>
       <c r="R75" s="12" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -5443,7 +5503,7 @@
         <v>7.1647058823528642</v>
       </c>
       <c r="L76" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-208.83529411764712</v>
       </c>
       <c r="M76" s="7" t="b">
@@ -5463,7 +5523,7 @@
         <v>91020</v>
       </c>
       <c r="R76" s="12" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -5501,7 +5561,7 @@
         <v>8.3117647058823056</v>
       </c>
       <c r="L77" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-334.6882352941177</v>
       </c>
       <c r="M77" s="7" t="b">
@@ -5521,7 +5581,7 @@
         <v>137060</v>
       </c>
       <c r="R77" s="12" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -5559,7 +5619,7 @@
         <v>7.1647058823528642</v>
       </c>
       <c r="L78" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-208.83529411764712</v>
       </c>
       <c r="M78" s="7" t="b">
@@ -5579,7 +5639,7 @@
         <v>91020</v>
       </c>
       <c r="R78" s="12" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -5617,7 +5677,7 @@
         <v>9.6411764705882526</v>
       </c>
       <c r="L79" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-502.35882352941172</v>
       </c>
       <c r="M79" s="7" t="b">
@@ -5637,7 +5697,7 @@
         <v>198830</v>
       </c>
       <c r="R79" s="12" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -5675,7 +5735,7 @@
         <v>9.6411764705882526</v>
       </c>
       <c r="L80" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-502.35882352941172</v>
       </c>
       <c r="M80" s="7" t="b">
@@ -5695,7 +5755,7 @@
         <v>197030</v>
       </c>
       <c r="R80" s="12" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -5733,7 +5793,7 @@
         <v>9.6411764705882526</v>
       </c>
       <c r="L81" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-502.35882352941172</v>
       </c>
       <c r="M81" s="7" t="b">
@@ -5753,7 +5813,7 @@
         <v>197030</v>
       </c>
       <c r="R81" s="12" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -5791,7 +5851,7 @@
         <v>8.3117647058823056</v>
       </c>
       <c r="L82" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-334.6882352941177</v>
       </c>
       <c r="M82" s="7" t="b">
@@ -5811,7 +5871,7 @@
         <v>135620</v>
       </c>
       <c r="R82" s="12" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -5849,7 +5909,7 @@
         <v>12.976470588235316</v>
       </c>
       <c r="L83" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-987.02352941176468</v>
       </c>
       <c r="M83" s="7" t="b">
@@ -5869,7 +5929,7 @@
         <v>426020</v>
       </c>
       <c r="R83" s="12" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -5907,7 +5967,7 @@
         <v>11.188235294117694</v>
       </c>
       <c r="L84" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-717.8117647058823</v>
       </c>
       <c r="M84" s="7" t="b">
@@ -5927,7 +5987,7 @@
         <v>314580</v>
       </c>
       <c r="R84" s="12" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -5965,7 +6025,7 @@
         <v>9.6411764705882526</v>
       </c>
       <c r="L85" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-502.35882352941172</v>
       </c>
       <c r="M85" s="7" t="b">
@@ -5985,7 +6045,7 @@
         <v>225150</v>
       </c>
       <c r="R85" s="12" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -6023,7 +6083,7 @@
         <v>9.6411764705882526</v>
       </c>
       <c r="L86" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-502.35882352941172</v>
       </c>
       <c r="M86" s="7" t="b">
@@ -6043,7 +6103,7 @@
         <v>225150</v>
       </c>
       <c r="R86" s="12" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -6081,7 +6141,7 @@
         <v>8.3117647058823056</v>
       </c>
       <c r="L87" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-334.6882352941177</v>
       </c>
       <c r="M87" s="7" t="b">
@@ -6101,7 +6161,7 @@
         <v>155290</v>
       </c>
       <c r="R87" s="12" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -6139,7 +6199,7 @@
         <v>8.3117647058823056</v>
       </c>
       <c r="L88" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-334.6882352941177</v>
       </c>
       <c r="M88" s="7" t="b">
@@ -6159,7 +6219,7 @@
         <v>155290</v>
       </c>
       <c r="R88" s="12" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -6197,7 +6257,7 @@
         <v>8.3117647058823056</v>
       </c>
       <c r="L89" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-334.6882352941177</v>
       </c>
       <c r="M89" s="7" t="b">
@@ -6217,7 +6277,7 @@
         <v>153310</v>
       </c>
       <c r="R89" s="12" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -6255,7 +6315,7 @@
         <v>12.976470588235316</v>
       </c>
       <c r="L90" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-987.02352941176468</v>
       </c>
       <c r="M90" s="7" t="b">
@@ -6275,7 +6335,7 @@
         <v>425300</v>
       </c>
       <c r="R90" s="12" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -6313,7 +6373,7 @@
         <v>11.188235294117694</v>
       </c>
       <c r="L91" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-717.8117647058823</v>
       </c>
       <c r="M91" s="7" t="b">
@@ -6333,7 +6393,7 @@
         <v>313860</v>
       </c>
       <c r="R91" s="12" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -6371,7 +6431,7 @@
         <v>8.3117647058823056</v>
       </c>
       <c r="L92" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-334.6882352941177</v>
       </c>
       <c r="M92" s="7" t="b">
@@ -6391,7 +6451,7 @@
         <v>154570</v>
       </c>
       <c r="R92" s="12" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -6429,7 +6489,7 @@
         <v>12.976470588235316</v>
       </c>
       <c r="L93" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-987.02352941176468</v>
       </c>
       <c r="M93" s="7" t="b">
@@ -6449,7 +6509,7 @@
         <v>425300</v>
       </c>
       <c r="R93" s="12" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -6487,7 +6547,7 @@
         <v>11.188235294117694</v>
       </c>
       <c r="L94" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-717.8117647058823</v>
       </c>
       <c r="M94" s="7" t="b">
@@ -6507,7 +6567,7 @@
         <v>313860</v>
       </c>
       <c r="R94" s="12" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -6545,7 +6605,7 @@
         <v>8.3117647058823056</v>
       </c>
       <c r="L95" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-334.6882352941177</v>
       </c>
       <c r="M95" s="7" t="b">
@@ -6565,7 +6625,7 @@
         <v>154570</v>
       </c>
       <c r="R95" s="12" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -6603,7 +6663,7 @@
         <v>7.1647058823528642</v>
       </c>
       <c r="L96" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-208.83529411764712</v>
       </c>
       <c r="M96" s="7" t="b">
@@ -6623,7 +6683,7 @@
         <v>101820</v>
       </c>
       <c r="R96" s="12" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -6661,7 +6721,7 @@
         <v>8.3117647058823056</v>
       </c>
       <c r="L97" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-334.6882352941177</v>
       </c>
       <c r="M97" s="7" t="b">
@@ -6681,7 +6741,7 @@
         <v>154210</v>
       </c>
       <c r="R97" s="12" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -6719,7 +6779,7 @@
         <v>7.1647058823528642</v>
       </c>
       <c r="L98" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-208.83529411764712</v>
       </c>
       <c r="M98" s="7" t="b">
@@ -6739,7 +6799,7 @@
         <v>101820</v>
       </c>
       <c r="R98" s="12" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -6777,7 +6837,7 @@
         <v>9.6411764705882526</v>
       </c>
       <c r="L99" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-502.35882352941172</v>
       </c>
       <c r="M99" s="7" t="b">
@@ -6797,7 +6857,7 @@
         <v>224430</v>
       </c>
       <c r="R99" s="12" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -6835,7 +6895,7 @@
         <v>9.6411764705882526</v>
       </c>
       <c r="L100" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-502.35882352941172</v>
       </c>
       <c r="M100" s="7" t="b">
@@ -6855,7 +6915,7 @@
         <v>222630</v>
       </c>
       <c r="R100" s="12" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -6893,7 +6953,7 @@
         <v>9.6411764705882526</v>
       </c>
       <c r="L101" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-502.35882352941172</v>
       </c>
       <c r="M101" s="7" t="b">
@@ -6913,7 +6973,7 @@
         <v>222630</v>
       </c>
       <c r="R101" s="12" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -6951,7 +7011,7 @@
         <v>8.3117647058823056</v>
       </c>
       <c r="L102" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-334.6882352941177</v>
       </c>
       <c r="M102" s="7" t="b">
@@ -6971,7 +7031,7 @@
         <v>152770</v>
       </c>
       <c r="R102" s="12" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -7009,7 +7069,7 @@
         <v>12.976470588235316</v>
       </c>
       <c r="L103" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-987.02352941176468</v>
       </c>
       <c r="M103" s="7" t="b">
@@ -7029,7 +7089,7 @@
         <v>126020</v>
       </c>
       <c r="R103" s="12" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -7067,7 +7127,7 @@
         <v>11.188235294117694</v>
       </c>
       <c r="L104" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-717.8117647058823</v>
       </c>
       <c r="M104" s="7" t="b">
@@ -7087,7 +7147,7 @@
         <v>95880</v>
       </c>
       <c r="R104" s="12" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -7125,7 +7185,7 @@
         <v>9.6411764705882526</v>
       </c>
       <c r="L105" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-502.35882352941172</v>
       </c>
       <c r="M105" s="7" t="b">
@@ -7145,7 +7205,7 @@
         <v>71550</v>
       </c>
       <c r="R105" s="12" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -7183,7 +7243,7 @@
         <v>9.6411764705882526</v>
       </c>
       <c r="L106" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-502.35882352941172</v>
       </c>
       <c r="M106" s="7" t="b">
@@ -7203,7 +7263,7 @@
         <v>71550</v>
       </c>
       <c r="R106" s="12" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -7241,7 +7301,7 @@
         <v>8.3117647058823056</v>
       </c>
       <c r="L107" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-334.6882352941177</v>
       </c>
       <c r="M107" s="7" t="b">
@@ -7261,7 +7321,7 @@
         <v>52390</v>
       </c>
       <c r="R107" s="12" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -7299,7 +7359,7 @@
         <v>8.3117647058823056</v>
       </c>
       <c r="L108" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-334.6882352941177</v>
       </c>
       <c r="M108" s="7" t="b">
@@ -7319,7 +7379,7 @@
         <v>52390</v>
       </c>
       <c r="R108" s="12" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -7357,7 +7417,7 @@
         <v>8.3117647058823056</v>
       </c>
       <c r="L109" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-334.6882352941177</v>
       </c>
       <c r="M109" s="7" t="b">
@@ -7377,7 +7437,7 @@
         <v>50410</v>
       </c>
       <c r="R109" s="12" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -7415,7 +7475,7 @@
         <v>12.976470588235316</v>
       </c>
       <c r="L110" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-987.02352941176468</v>
       </c>
       <c r="M110" s="7" t="b">
@@ -7435,7 +7495,7 @@
         <v>125300</v>
       </c>
       <c r="R110" s="12" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -7473,7 +7533,7 @@
         <v>11.188235294117694</v>
       </c>
       <c r="L111" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-717.8117647058823</v>
       </c>
       <c r="M111" s="7" t="b">
@@ -7493,7 +7553,7 @@
         <v>95160</v>
       </c>
       <c r="R111" s="12" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -7531,7 +7591,7 @@
         <v>8.3117647058823056</v>
       </c>
       <c r="L112" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-334.6882352941177</v>
       </c>
       <c r="M112" s="7" t="b">
@@ -7551,7 +7611,7 @@
         <v>51670</v>
       </c>
       <c r="R112" s="12" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -7589,7 +7649,7 @@
         <v>12.976470588235316</v>
       </c>
       <c r="L113" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-987.02352941176468</v>
       </c>
       <c r="M113" s="7" t="b">
@@ -7609,7 +7669,7 @@
         <v>125300</v>
       </c>
       <c r="R113" s="12" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -7647,7 +7707,7 @@
         <v>11.188235294117694</v>
       </c>
       <c r="L114" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-717.8117647058823</v>
       </c>
       <c r="M114" s="7" t="b">
@@ -7667,7 +7727,7 @@
         <v>95160</v>
       </c>
       <c r="R114" s="12" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -7705,7 +7765,7 @@
         <v>8.3117647058823056</v>
       </c>
       <c r="L115" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-334.6882352941177</v>
       </c>
       <c r="M115" s="7" t="b">
@@ -7725,7 +7785,7 @@
         <v>51670</v>
       </c>
       <c r="R115" s="12" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -7763,7 +7823,7 @@
         <v>7.1647058823528642</v>
       </c>
       <c r="L116" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-208.83529411764712</v>
       </c>
       <c r="M116" s="7" t="b">
@@ -7783,7 +7843,7 @@
         <v>37020</v>
       </c>
       <c r="R116" s="12" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -7821,7 +7881,7 @@
         <v>8.3117647058823056</v>
       </c>
       <c r="L117" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-334.6882352941177</v>
       </c>
       <c r="M117" s="7" t="b">
@@ -7841,7 +7901,7 @@
         <v>51310</v>
       </c>
       <c r="R117" s="12" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -7879,7 +7939,7 @@
         <v>7.1647058823528642</v>
       </c>
       <c r="L118" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-208.83529411764712</v>
       </c>
       <c r="M118" s="7" t="b">
@@ -7899,7 +7959,7 @@
         <v>37020</v>
       </c>
       <c r="R118" s="12" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -7937,7 +7997,7 @@
         <v>9.6411764705882526</v>
       </c>
       <c r="L119" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-502.35882352941172</v>
       </c>
       <c r="M119" s="7" t="b">
@@ -7957,7 +8017,7 @@
         <v>70830</v>
       </c>
       <c r="R119" s="12" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -7995,7 +8055,7 @@
         <v>9.6411764705882526</v>
       </c>
       <c r="L120" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-502.35882352941172</v>
       </c>
       <c r="M120" s="7" t="b">
@@ -8015,7 +8075,7 @@
         <v>69030</v>
       </c>
       <c r="R120" s="12" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -8053,7 +8113,7 @@
         <v>9.6411764705882526</v>
       </c>
       <c r="L121" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-502.35882352941172</v>
       </c>
       <c r="M121" s="7" t="b">
@@ -8073,7 +8133,7 @@
         <v>69030</v>
       </c>
       <c r="R121" s="12" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -8111,7 +8171,7 @@
         <v>8.3117647058823056</v>
       </c>
       <c r="L122" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-334.6882352941177</v>
       </c>
       <c r="M122" s="7" t="b">
@@ -8131,7 +8191,7 @@
         <v>49870</v>
       </c>
       <c r="R122" s="12" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -8169,7 +8229,7 @@
         <v>12.976470588235316</v>
       </c>
       <c r="L123" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-987.02352941176468</v>
       </c>
       <c r="M123" s="7" t="b">
@@ -8189,7 +8249,7 @@
         <v>576020</v>
       </c>
       <c r="R123" s="12" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -8227,7 +8287,7 @@
         <v>11.188235294117694</v>
       </c>
       <c r="L124" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-717.8117647058823</v>
       </c>
       <c r="M124" s="7" t="b">
@@ -8247,7 +8307,7 @@
         <v>423930</v>
       </c>
       <c r="R124" s="12" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -8285,7 +8345,7 @@
         <v>9.6411764705882526</v>
       </c>
       <c r="L125" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-502.35882352941172</v>
       </c>
       <c r="M125" s="7" t="b">
@@ -8305,7 +8365,7 @@
         <v>301950</v>
       </c>
       <c r="R125" s="12" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -8343,7 +8403,7 @@
         <v>9.6411764705882526</v>
       </c>
       <c r="L126" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-502.35882352941172</v>
       </c>
       <c r="M126" s="7" t="b">
@@ -8363,7 +8423,7 @@
         <v>301950</v>
       </c>
       <c r="R126" s="12" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -8401,7 +8461,7 @@
         <v>8.3117647058823056</v>
       </c>
       <c r="L127" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-334.6882352941177</v>
       </c>
       <c r="M127" s="7" t="b">
@@ -8421,7 +8481,7 @@
         <v>206740</v>
       </c>
       <c r="R127" s="12" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -8459,7 +8519,7 @@
         <v>8.3117647058823056</v>
       </c>
       <c r="L128" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-334.6882352941177</v>
       </c>
       <c r="M128" s="7" t="b">
@@ -8479,7 +8539,7 @@
         <v>206740</v>
       </c>
       <c r="R128" s="12" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -8517,7 +8577,7 @@
         <v>8.3117647058823056</v>
       </c>
       <c r="L129" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-334.6882352941177</v>
       </c>
       <c r="M129" s="7" t="b">
@@ -8537,7 +8597,7 @@
         <v>204760</v>
       </c>
       <c r="R129" s="12" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -8575,7 +8635,7 @@
         <v>12.976470588235316</v>
       </c>
       <c r="L130" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-987.02352941176468</v>
       </c>
       <c r="M130" s="7" t="b">
@@ -8595,7 +8655,7 @@
         <v>575300</v>
       </c>
       <c r="R130" s="12" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -8633,7 +8693,7 @@
         <v>11.188235294117694</v>
       </c>
       <c r="L131" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-717.8117647058823</v>
       </c>
       <c r="M131" s="7" t="b">
@@ -8653,7 +8713,7 @@
         <v>423210</v>
       </c>
       <c r="R131" s="12" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -8691,7 +8751,7 @@
         <v>8.3117647058823056</v>
       </c>
       <c r="L132" s="7">
-        <f t="shared" ref="L132:L195" si="4">K132-J132</f>
+        <f t="shared" ref="L132:L195" si="5">K132-J132</f>
         <v>-334.6882352941177</v>
       </c>
       <c r="M132" s="7" t="b">
@@ -8711,7 +8771,7 @@
         <v>206020</v>
       </c>
       <c r="R132" s="12" t="e">
-        <f t="shared" ref="R132:R195" si="5">N132-Q132</f>
+        <f t="shared" ref="R132:R195" si="6">N132-Q132</f>
         <v>#REF!</v>
       </c>
     </row>
@@ -8749,7 +8809,7 @@
         <v>12.976470588235316</v>
       </c>
       <c r="L133" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-987.02352941176468</v>
       </c>
       <c r="M133" s="7" t="b">
@@ -8769,7 +8829,7 @@
         <v>575300</v>
       </c>
       <c r="R133" s="12" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -8807,7 +8867,7 @@
         <v>11.188235294117694</v>
       </c>
       <c r="L134" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-717.8117647058823</v>
       </c>
       <c r="M134" s="7" t="b">
@@ -8827,7 +8887,7 @@
         <v>423210</v>
       </c>
       <c r="R134" s="12" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -8865,7 +8925,7 @@
         <v>8.3117647058823056</v>
       </c>
       <c r="L135" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-334.6882352941177</v>
       </c>
       <c r="M135" s="7" t="b">
@@ -8885,7 +8945,7 @@
         <v>206020</v>
       </c>
       <c r="R135" s="12" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -8923,7 +8983,7 @@
         <v>7.1647058823528642</v>
       </c>
       <c r="L136" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-208.83529411764712</v>
       </c>
       <c r="M136" s="7" t="b">
@@ -8943,7 +9003,7 @@
         <v>134220</v>
       </c>
       <c r="R136" s="12" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -8981,7 +9041,7 @@
         <v>8.3117647058823056</v>
       </c>
       <c r="L137" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-334.6882352941177</v>
       </c>
       <c r="M137" s="7" t="b">
@@ -9001,7 +9061,7 @@
         <v>205660</v>
       </c>
       <c r="R137" s="12" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -9039,7 +9099,7 @@
         <v>7.1647058823528642</v>
       </c>
       <c r="L138" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-208.83529411764712</v>
       </c>
       <c r="M138" s="7" t="b">
@@ -9059,7 +9119,7 @@
         <v>134220</v>
       </c>
       <c r="R138" s="12" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -9097,7 +9157,7 @@
         <v>9.6411764705882526</v>
       </c>
       <c r="L139" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-502.35882352941172</v>
       </c>
       <c r="M139" s="7" t="b">
@@ -9117,7 +9177,7 @@
         <v>301230</v>
       </c>
       <c r="R139" s="12" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -9155,7 +9215,7 @@
         <v>9.6411764705882526</v>
       </c>
       <c r="L140" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-502.35882352941172</v>
       </c>
       <c r="M140" s="7" t="b">
@@ -9175,7 +9235,7 @@
         <v>299430</v>
       </c>
       <c r="R140" s="12" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -9213,7 +9273,7 @@
         <v>9.6411764705882526</v>
       </c>
       <c r="L141" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-502.35882352941172</v>
       </c>
       <c r="M141" s="7" t="b">
@@ -9233,7 +9293,7 @@
         <v>299430</v>
       </c>
       <c r="R141" s="12" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -9271,7 +9331,7 @@
         <v>8.3117647058823056</v>
       </c>
       <c r="L142" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-334.6882352941177</v>
       </c>
       <c r="M142" s="7" t="b">
@@ -9291,7 +9351,7 @@
         <v>204220</v>
       </c>
       <c r="R142" s="12" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -9329,7 +9389,7 @@
         <v>12.976470588235316</v>
       </c>
       <c r="L143" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-987.02352941176468</v>
       </c>
       <c r="M143" s="7" t="b">
@@ -9349,7 +9409,7 @@
         <v>356020</v>
       </c>
       <c r="R143" s="12" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -9387,7 +9447,7 @@
         <v>11.188235294117694</v>
       </c>
       <c r="L144" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-717.8117647058823</v>
       </c>
       <c r="M144" s="7" t="b">
@@ -9407,7 +9467,7 @@
         <v>263550</v>
       </c>
       <c r="R144" s="12" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -9445,7 +9505,7 @@
         <v>9.6411764705882526</v>
       </c>
       <c r="L145" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-502.35882352941172</v>
       </c>
       <c r="M145" s="7" t="b">
@@ -9465,7 +9525,7 @@
         <v>189310</v>
       </c>
       <c r="R145" s="12" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -9503,7 +9563,7 @@
         <v>9.6411764705882526</v>
       </c>
       <c r="L146" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-502.35882352941172</v>
       </c>
       <c r="M146" s="7" t="b">
@@ -9523,7 +9583,7 @@
         <v>189310</v>
       </c>
       <c r="R146" s="12" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -9561,7 +9621,7 @@
         <v>8.3117647058823056</v>
       </c>
       <c r="L147" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-334.6882352941177</v>
       </c>
       <c r="M147" s="7" t="b">
@@ -9581,7 +9641,7 @@
         <v>131280</v>
       </c>
       <c r="R147" s="12" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -9619,7 +9679,7 @@
         <v>8.3117647058823056</v>
       </c>
       <c r="L148" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-334.6882352941177</v>
       </c>
       <c r="M148" s="7" t="b">
@@ -9639,7 +9699,7 @@
         <v>131280</v>
       </c>
       <c r="R148" s="12" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -9677,7 +9737,7 @@
         <v>8.3117647058823056</v>
       </c>
       <c r="L149" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-334.6882352941177</v>
       </c>
       <c r="M149" s="7" t="b">
@@ -9697,7 +9757,7 @@
         <v>129300</v>
       </c>
       <c r="R149" s="12" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -9735,7 +9795,7 @@
         <v>12.976470588235316</v>
       </c>
       <c r="L150" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-987.02352941176468</v>
       </c>
       <c r="M150" s="7" t="b">
@@ -9755,7 +9815,7 @@
         <v>355300</v>
       </c>
       <c r="R150" s="12" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -9793,7 +9853,7 @@
         <v>11.188235294117694</v>
       </c>
       <c r="L151" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-717.8117647058823</v>
       </c>
       <c r="M151" s="7" t="b">
@@ -9813,7 +9873,7 @@
         <v>262830</v>
       </c>
       <c r="R151" s="12" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -9851,7 +9911,7 @@
         <v>8.3117647058823056</v>
       </c>
       <c r="L152" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-334.6882352941177</v>
       </c>
       <c r="M152" s="7" t="b">
@@ -9871,7 +9931,7 @@
         <v>130560</v>
       </c>
       <c r="R152" s="12" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -9909,7 +9969,7 @@
         <v>12.976470588235316</v>
       </c>
       <c r="L153" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-987.02352941176468</v>
       </c>
       <c r="M153" s="7" t="b">
@@ -9929,7 +9989,7 @@
         <v>355300</v>
       </c>
       <c r="R153" s="12" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -9967,7 +10027,7 @@
         <v>11.188235294117694</v>
       </c>
       <c r="L154" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-717.8117647058823</v>
       </c>
       <c r="M154" s="7" t="b">
@@ -9987,7 +10047,7 @@
         <v>262830</v>
       </c>
       <c r="R154" s="12" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -10025,7 +10085,7 @@
         <v>8.3117647058823056</v>
       </c>
       <c r="L155" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-334.6882352941177</v>
       </c>
       <c r="M155" s="7" t="b">
@@ -10045,7 +10105,7 @@
         <v>130560</v>
       </c>
       <c r="R155" s="12" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -10083,7 +10143,7 @@
         <v>7.1647058823528642</v>
       </c>
       <c r="L156" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-208.83529411764712</v>
       </c>
       <c r="M156" s="7" t="b">
@@ -10103,7 +10163,7 @@
         <v>86700</v>
       </c>
       <c r="R156" s="12" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -10141,7 +10201,7 @@
         <v>8.3117647058823056</v>
       </c>
       <c r="L157" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-334.6882352941177</v>
       </c>
       <c r="M157" s="7" t="b">
@@ -10161,7 +10221,7 @@
         <v>130200</v>
       </c>
       <c r="R157" s="12" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -10199,7 +10259,7 @@
         <v>7.1647058823528642</v>
       </c>
       <c r="L158" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-208.83529411764712</v>
       </c>
       <c r="M158" s="7" t="b">
@@ -10219,7 +10279,7 @@
         <v>86700</v>
       </c>
       <c r="R158" s="12" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -10257,7 +10317,7 @@
         <v>9.6411764705882526</v>
       </c>
       <c r="L159" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-502.35882352941172</v>
       </c>
       <c r="M159" s="7" t="b">
@@ -10277,7 +10337,7 @@
         <v>188590</v>
       </c>
       <c r="R159" s="12" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -10315,7 +10375,7 @@
         <v>9.6411764705882526</v>
       </c>
       <c r="L160" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-502.35882352941172</v>
       </c>
       <c r="M160" s="7" t="b">
@@ -10335,7 +10395,7 @@
         <v>186790</v>
       </c>
       <c r="R160" s="12" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -10373,7 +10433,7 @@
         <v>9.6411764705882526</v>
       </c>
       <c r="L161" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-502.35882352941172</v>
       </c>
       <c r="M161" s="7" t="b">
@@ -10393,7 +10453,7 @@
         <v>186790</v>
       </c>
       <c r="R161" s="12" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -10431,7 +10491,7 @@
         <v>8.3117647058823056</v>
       </c>
       <c r="L162" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-334.6882352941177</v>
       </c>
       <c r="M162" s="7" t="b">
@@ -10451,7 +10511,7 @@
         <v>128760</v>
       </c>
       <c r="R162" s="12" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -10489,7 +10549,7 @@
         <v>12.976470588235316</v>
       </c>
       <c r="L163" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-987.02352941176468</v>
       </c>
       <c r="M163" s="7" t="b">
@@ -10509,7 +10569,7 @@
         <v>256020</v>
       </c>
       <c r="R163" s="12" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -10547,7 +10607,7 @@
         <v>11.188235294117694</v>
       </c>
       <c r="L164" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-717.8117647058823</v>
       </c>
       <c r="M164" s="7" t="b">
@@ -10567,7 +10627,7 @@
         <v>190650</v>
       </c>
       <c r="R164" s="12" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -10605,7 +10665,7 @@
         <v>9.6411764705882526</v>
       </c>
       <c r="L165" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-502.35882352941172</v>
       </c>
       <c r="M165" s="7" t="b">
@@ -10625,7 +10685,7 @@
         <v>138110</v>
       </c>
       <c r="R165" s="12" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -10663,7 +10723,7 @@
         <v>9.6411764705882526</v>
       </c>
       <c r="L166" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-502.35882352941172</v>
       </c>
       <c r="M166" s="7" t="b">
@@ -10683,7 +10743,7 @@
         <v>138110</v>
       </c>
       <c r="R166" s="12" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -10721,7 +10781,7 @@
         <v>8.3117647058823056</v>
       </c>
       <c r="L167" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-334.6882352941177</v>
       </c>
       <c r="M167" s="7" t="b">
@@ -10741,7 +10801,7 @@
         <v>96980</v>
       </c>
       <c r="R167" s="12" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -10779,7 +10839,7 @@
         <v>8.3117647058823056</v>
       </c>
       <c r="L168" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-334.6882352941177</v>
       </c>
       <c r="M168" s="7" t="b">
@@ -10799,7 +10859,7 @@
         <v>96980</v>
       </c>
       <c r="R168" s="12" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -10837,7 +10897,7 @@
         <v>8.3117647058823056</v>
       </c>
       <c r="L169" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-334.6882352941177</v>
       </c>
       <c r="M169" s="7" t="b">
@@ -10857,7 +10917,7 @@
         <v>95000</v>
       </c>
       <c r="R169" s="12" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -10895,7 +10955,7 @@
         <v>12.976470588235316</v>
       </c>
       <c r="L170" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-987.02352941176468</v>
       </c>
       <c r="M170" s="7" t="b">
@@ -10915,7 +10975,7 @@
         <v>255300</v>
       </c>
       <c r="R170" s="12" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -10953,7 +11013,7 @@
         <v>11.188235294117694</v>
       </c>
       <c r="L171" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-717.8117647058823</v>
       </c>
       <c r="M171" s="7" t="b">
@@ -10973,7 +11033,7 @@
         <v>189930</v>
       </c>
       <c r="R171" s="12" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -11011,7 +11071,7 @@
         <v>8.3117647058823056</v>
       </c>
       <c r="L172" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-334.6882352941177</v>
       </c>
       <c r="M172" s="7" t="b">
@@ -11031,7 +11091,7 @@
         <v>96260</v>
       </c>
       <c r="R172" s="12" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -11069,7 +11129,7 @@
         <v>12.976470588235316</v>
       </c>
       <c r="L173" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-987.02352941176468</v>
       </c>
       <c r="M173" s="7" t="b">
@@ -11089,7 +11149,7 @@
         <v>255300</v>
       </c>
       <c r="R173" s="12" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -11127,7 +11187,7 @@
         <v>11.188235294117694</v>
       </c>
       <c r="L174" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-717.8117647058823</v>
       </c>
       <c r="M174" s="7" t="b">
@@ -11147,7 +11207,7 @@
         <v>189930</v>
       </c>
       <c r="R174" s="12" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -11185,7 +11245,7 @@
         <v>8.3117647058823056</v>
       </c>
       <c r="L175" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-334.6882352941177</v>
       </c>
       <c r="M175" s="7" t="b">
@@ -11205,7 +11265,7 @@
         <v>96260</v>
       </c>
       <c r="R175" s="12" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -11243,7 +11303,7 @@
         <v>7.1647058823528642</v>
       </c>
       <c r="L176" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-208.83529411764712</v>
       </c>
       <c r="M176" s="7" t="b">
@@ -11263,7 +11323,7 @@
         <v>65100</v>
       </c>
       <c r="R176" s="12" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -11301,7 +11361,7 @@
         <v>8.3117647058823056</v>
       </c>
       <c r="L177" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-334.6882352941177</v>
       </c>
       <c r="M177" s="7" t="b">
@@ -11321,7 +11381,7 @@
         <v>95900</v>
       </c>
       <c r="R177" s="12" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -11359,7 +11419,7 @@
         <v>7.1647058823528642</v>
       </c>
       <c r="L178" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-208.83529411764712</v>
       </c>
       <c r="M178" s="7" t="b">
@@ -11379,7 +11439,7 @@
         <v>65100</v>
       </c>
       <c r="R178" s="12" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -11417,7 +11477,7 @@
         <v>9.6411764705882526</v>
       </c>
       <c r="L179" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-502.35882352941172</v>
       </c>
       <c r="M179" s="7" t="b">
@@ -11437,7 +11497,7 @@
         <v>137390</v>
       </c>
       <c r="R179" s="12" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -11475,7 +11535,7 @@
         <v>9.6411764705882526</v>
       </c>
       <c r="L180" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-502.35882352941172</v>
       </c>
       <c r="M180" s="7" t="b">
@@ -11495,7 +11555,7 @@
         <v>135590</v>
       </c>
       <c r="R180" s="12" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -11533,7 +11593,7 @@
         <v>9.6411764705882526</v>
       </c>
       <c r="L181" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-502.35882352941172</v>
       </c>
       <c r="M181" s="7" t="b">
@@ -11553,7 +11613,7 @@
         <v>135590</v>
       </c>
       <c r="R181" s="12" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -11591,7 +11651,7 @@
         <v>8.3117647058823056</v>
       </c>
       <c r="L182" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-334.6882352941177</v>
       </c>
       <c r="M182" s="7" t="b">
@@ -11611,7 +11671,7 @@
         <v>94460</v>
       </c>
       <c r="R182" s="12" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -11649,7 +11709,7 @@
         <v>12.976470588235316</v>
       </c>
       <c r="L183" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-987.02352941176468</v>
       </c>
       <c r="M183" s="7" t="b">
@@ -11669,7 +11729,7 @@
         <v>26020</v>
       </c>
       <c r="R183" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -11707,7 +11767,7 @@
         <v>11.188235294117694</v>
       </c>
       <c r="L184" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-717.8117647058823</v>
       </c>
       <c r="M184" s="7" t="b">
@@ -11727,7 +11787,7 @@
         <v>22980</v>
       </c>
       <c r="R184" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -11765,7 +11825,7 @@
         <v>9.6411764705882526</v>
       </c>
       <c r="L185" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-502.35882352941172</v>
       </c>
       <c r="M185" s="7" t="b">
@@ -11785,7 +11845,7 @@
         <v>20350</v>
       </c>
       <c r="R185" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -11823,7 +11883,7 @@
         <v>9.6411764705882526</v>
       </c>
       <c r="L186" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-502.35882352941172</v>
       </c>
       <c r="M186" s="7" t="b">
@@ -11843,7 +11903,7 @@
         <v>20350</v>
       </c>
       <c r="R186" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -11881,7 +11941,7 @@
         <v>8.3117647058823056</v>
       </c>
       <c r="L187" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-334.6882352941177</v>
       </c>
       <c r="M187" s="7" t="b">
@@ -11901,7 +11961,7 @@
         <v>18090</v>
       </c>
       <c r="R187" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -11939,7 +11999,7 @@
         <v>8.3117647058823056</v>
       </c>
       <c r="L188" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-334.6882352941177</v>
       </c>
       <c r="M188" s="7" t="b">
@@ -11959,7 +12019,7 @@
         <v>18090</v>
       </c>
       <c r="R188" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -11997,7 +12057,7 @@
         <v>8.3117647058823056</v>
       </c>
       <c r="L189" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-334.6882352941177</v>
       </c>
       <c r="M189" s="7" t="b">
@@ -12017,7 +12077,7 @@
         <v>16110</v>
       </c>
       <c r="R189" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -12055,7 +12115,7 @@
         <v>12.976470588235316</v>
       </c>
       <c r="L190" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-987.02352941176468</v>
       </c>
       <c r="M190" s="7" t="b">
@@ -12075,7 +12135,7 @@
         <v>25300</v>
       </c>
       <c r="R190" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -12113,7 +12173,7 @@
         <v>11.188235294117694</v>
       </c>
       <c r="L191" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-717.8117647058823</v>
       </c>
       <c r="M191" s="7" t="b">
@@ -12133,7 +12193,7 @@
         <v>22260</v>
       </c>
       <c r="R191" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -12171,7 +12231,7 @@
         <v>8.3117647058823056</v>
       </c>
       <c r="L192" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-334.6882352941177</v>
       </c>
       <c r="M192" s="7" t="b">
@@ -12191,7 +12251,7 @@
         <v>17370</v>
       </c>
       <c r="R192" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -12229,7 +12289,7 @@
         <v>12.976470588235316</v>
       </c>
       <c r="L193" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-987.02352941176468</v>
       </c>
       <c r="M193" s="7" t="b">
@@ -12249,7 +12309,7 @@
         <v>25300</v>
       </c>
       <c r="R193" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -12287,7 +12347,7 @@
         <v>11.188235294117694</v>
       </c>
       <c r="L194" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-717.8117647058823</v>
       </c>
       <c r="M194" s="7" t="b">
@@ -12307,7 +12367,7 @@
         <v>22260</v>
       </c>
       <c r="R194" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -12345,7 +12405,7 @@
         <v>8.3117647058823056</v>
       </c>
       <c r="L195" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-334.6882352941177</v>
       </c>
       <c r="M195" s="7" t="b">
@@ -12365,7 +12425,7 @@
         <v>17370</v>
       </c>
       <c r="R195" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -12403,7 +12463,7 @@
         <v>7.1647058823528642</v>
       </c>
       <c r="L196" s="7">
-        <f t="shared" ref="L196:L259" si="6">K196-J196</f>
+        <f t="shared" ref="L196:L259" si="7">K196-J196</f>
         <v>-208.83529411764712</v>
       </c>
       <c r="M196" s="7" t="b">
@@ -12423,7 +12483,7 @@
         <v>15420</v>
       </c>
       <c r="R196" s="12">
-        <f t="shared" ref="R196:R259" si="7">N196-Q196</f>
+        <f t="shared" ref="R196:R259" si="8">N196-Q196</f>
         <v>0</v>
       </c>
     </row>
@@ -12461,7 +12521,7 @@
         <v>8.3117647058823056</v>
       </c>
       <c r="L197" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-334.6882352941177</v>
       </c>
       <c r="M197" s="7" t="b">
@@ -12481,7 +12541,7 @@
         <v>17010</v>
       </c>
       <c r="R197" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -12519,7 +12579,7 @@
         <v>7.1647058823528642</v>
       </c>
       <c r="L198" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-208.83529411764712</v>
       </c>
       <c r="M198" s="7" t="b">
@@ -12539,7 +12599,7 @@
         <v>15420</v>
       </c>
       <c r="R198" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -12577,7 +12637,7 @@
         <v>9.6411764705882526</v>
       </c>
       <c r="L199" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-502.35882352941172</v>
       </c>
       <c r="M199" s="7" t="b">
@@ -12597,7 +12657,7 @@
         <v>19630</v>
       </c>
       <c r="R199" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -12635,7 +12695,7 @@
         <v>9.6411764705882526</v>
       </c>
       <c r="L200" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-502.35882352941172</v>
       </c>
       <c r="M200" s="7" t="b">
@@ -12655,7 +12715,7 @@
         <v>17830</v>
       </c>
       <c r="R200" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -12693,7 +12753,7 @@
         <v>9.6411764705882526</v>
       </c>
       <c r="L201" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-502.35882352941172</v>
       </c>
       <c r="M201" s="7" t="b">
@@ -12713,7 +12773,7 @@
         <v>17830</v>
       </c>
       <c r="R201" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -12751,7 +12811,7 @@
         <v>8.3117647058823056</v>
       </c>
       <c r="L202" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-334.6882352941177</v>
       </c>
       <c r="M202" s="7" t="b">
@@ -12771,7 +12831,7 @@
         <v>15570</v>
       </c>
       <c r="R202" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -12809,7 +12869,7 @@
         <v>12.976470588235316</v>
       </c>
       <c r="L203" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-987.02352941176468</v>
       </c>
       <c r="M203" s="7" t="b">
@@ -12829,7 +12889,7 @@
         <v>196020</v>
       </c>
       <c r="R203" s="12" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -12867,7 +12927,7 @@
         <v>11.188235294117694</v>
       </c>
       <c r="L204" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-717.8117647058823</v>
       </c>
       <c r="M204" s="7" t="b">
@@ -12887,7 +12947,7 @@
         <v>146910</v>
       </c>
       <c r="R204" s="12" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -12925,7 +12985,7 @@
         <v>9.6411764705882526</v>
       </c>
       <c r="L205" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-502.35882352941172</v>
       </c>
       <c r="M205" s="7" t="b">
@@ -12945,7 +13005,7 @@
         <v>107390</v>
       </c>
       <c r="R205" s="12" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -12983,7 +13043,7 @@
         <v>9.6411764705882526</v>
       </c>
       <c r="L206" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-502.35882352941172</v>
       </c>
       <c r="M206" s="7" t="b">
@@ -13003,7 +13063,7 @@
         <v>107390</v>
       </c>
       <c r="R206" s="12" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -13041,7 +13101,7 @@
         <v>8.3117647058823056</v>
       </c>
       <c r="L207" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-334.6882352941177</v>
       </c>
       <c r="M207" s="7" t="b">
@@ -13061,7 +13121,7 @@
         <v>76400</v>
       </c>
       <c r="R207" s="12" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -13099,7 +13159,7 @@
         <v>8.3117647058823056</v>
       </c>
       <c r="L208" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-334.6882352941177</v>
       </c>
       <c r="M208" s="7" t="b">
@@ -13119,7 +13179,7 @@
         <v>76400</v>
       </c>
       <c r="R208" s="12" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -13157,7 +13217,7 @@
         <v>8.3117647058823056</v>
       </c>
       <c r="L209" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-334.6882352941177</v>
       </c>
       <c r="M209" s="7" t="b">
@@ -13177,7 +13237,7 @@
         <v>74420</v>
       </c>
       <c r="R209" s="12" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -13215,7 +13275,7 @@
         <v>12.976470588235316</v>
       </c>
       <c r="L210" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-987.02352941176468</v>
       </c>
       <c r="M210" s="7" t="b">
@@ -13235,7 +13295,7 @@
         <v>195300</v>
       </c>
       <c r="R210" s="12" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -13273,7 +13333,7 @@
         <v>11.188235294117694</v>
       </c>
       <c r="L211" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-717.8117647058823</v>
       </c>
       <c r="M211" s="7" t="b">
@@ -13293,7 +13353,7 @@
         <v>146190</v>
       </c>
       <c r="R211" s="12" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -13331,7 +13391,7 @@
         <v>8.3117647058823056</v>
       </c>
       <c r="L212" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-334.6882352941177</v>
       </c>
       <c r="M212" s="7" t="b">
@@ -13351,7 +13411,7 @@
         <v>75680</v>
       </c>
       <c r="R212" s="12" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -13389,7 +13449,7 @@
         <v>12.976470588235316</v>
       </c>
       <c r="L213" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-987.02352941176468</v>
       </c>
       <c r="M213" s="7" t="b">
@@ -13409,7 +13469,7 @@
         <v>195300</v>
       </c>
       <c r="R213" s="12" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -13447,7 +13507,7 @@
         <v>11.188235294117694</v>
       </c>
       <c r="L214" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-717.8117647058823</v>
       </c>
       <c r="M214" s="7" t="b">
@@ -13467,7 +13527,7 @@
         <v>146190</v>
       </c>
       <c r="R214" s="12" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -13505,7 +13565,7 @@
         <v>8.3117647058823056</v>
       </c>
       <c r="L215" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-334.6882352941177</v>
       </c>
       <c r="M215" s="7" t="b">
@@ -13525,7 +13585,7 @@
         <v>75680</v>
       </c>
       <c r="R215" s="12" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -13563,7 +13623,7 @@
         <v>7.1647058823528642</v>
       </c>
       <c r="L216" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-208.83529411764712</v>
       </c>
       <c r="M216" s="7" t="b">
@@ -13583,7 +13643,7 @@
         <v>52140</v>
       </c>
       <c r="R216" s="12" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -13621,7 +13681,7 @@
         <v>8.3117647058823056</v>
       </c>
       <c r="L217" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-334.6882352941177</v>
       </c>
       <c r="M217" s="7" t="b">
@@ -13641,7 +13701,7 @@
         <v>75320</v>
       </c>
       <c r="R217" s="12" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -13679,7 +13739,7 @@
         <v>7.1647058823528642</v>
       </c>
       <c r="L218" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-208.83529411764712</v>
       </c>
       <c r="M218" s="7" t="b">
@@ -13699,7 +13759,7 @@
         <v>52140</v>
       </c>
       <c r="R218" s="12" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -13737,7 +13797,7 @@
         <v>9.6411764705882526</v>
       </c>
       <c r="L219" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-502.35882352941172</v>
       </c>
       <c r="M219" s="7" t="b">
@@ -13757,7 +13817,7 @@
         <v>106670</v>
       </c>
       <c r="R219" s="12" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -13795,7 +13855,7 @@
         <v>9.6411764705882526</v>
       </c>
       <c r="L220" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-502.35882352941172</v>
       </c>
       <c r="M220" s="7" t="b">
@@ -13815,7 +13875,7 @@
         <v>104870</v>
       </c>
       <c r="R220" s="12" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -13853,7 +13913,7 @@
         <v>9.6411764705882526</v>
       </c>
       <c r="L221" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-502.35882352941172</v>
       </c>
       <c r="M221" s="7" t="b">
@@ -13873,7 +13933,7 @@
         <v>104870</v>
       </c>
       <c r="R221" s="12" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -13911,7 +13971,7 @@
         <v>8.3117647058823056</v>
       </c>
       <c r="L222" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-334.6882352941177</v>
       </c>
       <c r="M222" s="7" t="b">
@@ -13931,7 +13991,7 @@
         <v>73880</v>
       </c>
       <c r="R222" s="12" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -13969,7 +14029,7 @@
         <v>12.976470588235316</v>
       </c>
       <c r="L223" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-987.02352941176468</v>
       </c>
       <c r="M223" s="7" t="b">
@@ -13989,7 +14049,7 @@
         <v>26020</v>
       </c>
       <c r="R223" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -14027,7 +14087,7 @@
         <v>11.188235294117694</v>
       </c>
       <c r="L224" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-717.8117647058823</v>
       </c>
       <c r="M224" s="7" t="b">
@@ -14047,7 +14107,7 @@
         <v>22980</v>
       </c>
       <c r="R224" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -14085,7 +14145,7 @@
         <v>9.6411764705882526</v>
       </c>
       <c r="L225" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-502.35882352941172</v>
       </c>
       <c r="M225" s="7" t="b">
@@ -14105,7 +14165,7 @@
         <v>20350</v>
       </c>
       <c r="R225" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -14143,7 +14203,7 @@
         <v>9.6411764705882526</v>
       </c>
       <c r="L226" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-502.35882352941172</v>
       </c>
       <c r="M226" s="7" t="b">
@@ -14163,7 +14223,7 @@
         <v>20350</v>
       </c>
       <c r="R226" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -14201,7 +14261,7 @@
         <v>8.3117647058823056</v>
       </c>
       <c r="L227" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-334.6882352941177</v>
       </c>
       <c r="M227" s="7" t="b">
@@ -14221,7 +14281,7 @@
         <v>18090</v>
       </c>
       <c r="R227" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -14259,7 +14319,7 @@
         <v>8.3117647058823056</v>
       </c>
       <c r="L228" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-334.6882352941177</v>
       </c>
       <c r="M228" s="7" t="b">
@@ -14279,7 +14339,7 @@
         <v>18090</v>
       </c>
       <c r="R228" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -14317,7 +14377,7 @@
         <v>8.3117647058823056</v>
       </c>
       <c r="L229" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-334.6882352941177</v>
       </c>
       <c r="M229" s="7" t="b">
@@ -14337,7 +14397,7 @@
         <v>16110</v>
       </c>
       <c r="R229" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -14375,7 +14435,7 @@
         <v>12.976470588235316</v>
       </c>
       <c r="L230" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-987.02352941176468</v>
       </c>
       <c r="M230" s="7" t="b">
@@ -14395,7 +14455,7 @@
         <v>25300</v>
       </c>
       <c r="R230" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -14433,7 +14493,7 @@
         <v>11.188235294117694</v>
       </c>
       <c r="L231" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-717.8117647058823</v>
       </c>
       <c r="M231" s="7" t="b">
@@ -14453,7 +14513,7 @@
         <v>22260</v>
       </c>
       <c r="R231" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -14491,7 +14551,7 @@
         <v>8.3117647058823056</v>
       </c>
       <c r="L232" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-334.6882352941177</v>
       </c>
       <c r="M232" s="7" t="b">
@@ -14511,7 +14571,7 @@
         <v>17370</v>
       </c>
       <c r="R232" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -14549,7 +14609,7 @@
         <v>12.976470588235316</v>
       </c>
       <c r="L233" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-987.02352941176468</v>
       </c>
       <c r="M233" s="7" t="b">
@@ -14569,7 +14629,7 @@
         <v>25300</v>
       </c>
       <c r="R233" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -14607,7 +14667,7 @@
         <v>11.188235294117694</v>
       </c>
       <c r="L234" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-717.8117647058823</v>
       </c>
       <c r="M234" s="7" t="b">
@@ -14627,7 +14687,7 @@
         <v>22260</v>
       </c>
       <c r="R234" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -14665,7 +14725,7 @@
         <v>8.3117647058823056</v>
       </c>
       <c r="L235" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-334.6882352941177</v>
       </c>
       <c r="M235" s="7" t="b">
@@ -14685,7 +14745,7 @@
         <v>17370</v>
       </c>
       <c r="R235" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -14723,7 +14783,7 @@
         <v>7.1647058823528642</v>
       </c>
       <c r="L236" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-208.83529411764712</v>
       </c>
       <c r="M236" s="7" t="b">
@@ -14743,7 +14803,7 @@
         <v>15420</v>
       </c>
       <c r="R236" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -14781,7 +14841,7 @@
         <v>8.3117647058823056</v>
       </c>
       <c r="L237" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-334.6882352941177</v>
       </c>
       <c r="M237" s="7" t="b">
@@ -14801,7 +14861,7 @@
         <v>17010</v>
       </c>
       <c r="R237" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -14839,7 +14899,7 @@
         <v>7.1647058823528642</v>
       </c>
       <c r="L238" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-208.83529411764712</v>
       </c>
       <c r="M238" s="7" t="b">
@@ -14859,7 +14919,7 @@
         <v>15420</v>
       </c>
       <c r="R238" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -14897,7 +14957,7 @@
         <v>9.6411764705882526</v>
       </c>
       <c r="L239" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-502.35882352941172</v>
       </c>
       <c r="M239" s="7" t="b">
@@ -14917,7 +14977,7 @@
         <v>19630</v>
       </c>
       <c r="R239" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -14955,7 +15015,7 @@
         <v>9.6411764705882526</v>
       </c>
       <c r="L240" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-502.35882352941172</v>
       </c>
       <c r="M240" s="7" t="b">
@@ -14975,7 +15035,7 @@
         <v>17830</v>
       </c>
       <c r="R240" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -15013,7 +15073,7 @@
         <v>9.6411764705882526</v>
       </c>
       <c r="L241" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-502.35882352941172</v>
       </c>
       <c r="M241" s="7" t="b">
@@ -15033,7 +15093,7 @@
         <v>17830</v>
       </c>
       <c r="R241" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -15071,7 +15131,7 @@
         <v>8.3117647058823056</v>
       </c>
       <c r="L242" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-334.6882352941177</v>
       </c>
       <c r="M242" s="7" t="b">
@@ -15091,7 +15151,7 @@
         <v>15570</v>
       </c>
       <c r="R242" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -15129,7 +15189,7 @@
         <v>7.164705882352937</v>
       </c>
       <c r="L243" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-208.83529411764707</v>
       </c>
       <c r="M243" s="7" t="b">
@@ -15149,7 +15209,7 @@
         <v>12180</v>
       </c>
       <c r="R243" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -15183,11 +15243,11 @@
         <v>216</v>
       </c>
       <c r="K244" s="7">
-        <f t="shared" ref="K244:K254" si="8">VALUE($K$243)</f>
+        <f t="shared" ref="K244:K254" si="9">VALUE($K$243)</f>
         <v>7.164705882352937</v>
       </c>
       <c r="L244" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-208.83529411764707</v>
       </c>
       <c r="M244" s="7" t="b">
@@ -15207,7 +15267,7 @@
         <v>12180</v>
       </c>
       <c r="R244" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -15241,11 +15301,11 @@
         <v>216</v>
       </c>
       <c r="K245" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7.164705882352937</v>
       </c>
       <c r="L245" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-208.83529411764707</v>
       </c>
       <c r="M245" s="7" t="b">
@@ -15265,7 +15325,7 @@
         <v>12180</v>
       </c>
       <c r="R245" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -15299,11 +15359,11 @@
         <v>216</v>
       </c>
       <c r="K246" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7.164705882352937</v>
       </c>
       <c r="L246" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-208.83529411764707</v>
       </c>
       <c r="M246" s="7" t="b">
@@ -15323,7 +15383,7 @@
         <v>87780</v>
       </c>
       <c r="R246" s="12" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -15357,11 +15417,11 @@
         <v>216</v>
       </c>
       <c r="K247" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7.164705882352937</v>
       </c>
       <c r="L247" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-208.83529411764707</v>
       </c>
       <c r="M247" s="7" t="b">
@@ -15381,7 +15441,7 @@
         <v>98580</v>
       </c>
       <c r="R247" s="12" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -15415,11 +15475,11 @@
         <v>216</v>
       </c>
       <c r="K248" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7.164705882352937</v>
       </c>
       <c r="L248" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-208.83529411764707</v>
       </c>
       <c r="M248" s="7" t="b">
@@ -15439,7 +15499,7 @@
         <v>33780</v>
       </c>
       <c r="R248" s="12" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -15473,11 +15533,11 @@
         <v>216</v>
       </c>
       <c r="K249" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7.164705882352937</v>
       </c>
       <c r="L249" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-208.83529411764707</v>
       </c>
       <c r="M249" s="7" t="b">
@@ -15497,7 +15557,7 @@
         <v>130980</v>
       </c>
       <c r="R249" s="12" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -15531,11 +15591,11 @@
         <v>216</v>
       </c>
       <c r="K250" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7.164705882352937</v>
       </c>
       <c r="L250" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-208.83529411764707</v>
       </c>
       <c r="M250" s="7" t="b">
@@ -15555,7 +15615,7 @@
         <v>83460</v>
       </c>
       <c r="R250" s="12" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -15589,11 +15649,11 @@
         <v>216</v>
       </c>
       <c r="K251" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7.164705882352937</v>
       </c>
       <c r="L251" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-208.83529411764707</v>
       </c>
       <c r="M251" s="7" t="b">
@@ -15613,7 +15673,7 @@
         <v>61860</v>
       </c>
       <c r="R251" s="12" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -15647,11 +15707,11 @@
         <v>216</v>
       </c>
       <c r="K252" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7.164705882352937</v>
       </c>
       <c r="L252" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-208.83529411764707</v>
       </c>
       <c r="M252" s="7" t="b">
@@ -15671,7 +15731,7 @@
         <v>12180</v>
       </c>
       <c r="R252" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -15705,11 +15765,11 @@
         <v>216</v>
       </c>
       <c r="K253" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7.164705882352937</v>
       </c>
       <c r="L253" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-208.83529411764707</v>
       </c>
       <c r="M253" s="7" t="b">
@@ -15729,7 +15789,7 @@
         <v>48900</v>
       </c>
       <c r="R253" s="12" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -15763,11 +15823,11 @@
         <v>216</v>
       </c>
       <c r="K254" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7.164705882352937</v>
       </c>
       <c r="L254" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-208.83529411764707</v>
       </c>
       <c r="M254" s="7" t="b">
@@ -15787,7 +15847,7 @@
         <v>12180</v>
       </c>
       <c r="R254" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -15825,7 +15885,7 @@
         <v>12.976470588235316</v>
       </c>
       <c r="L255" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-987.02352941176468</v>
       </c>
       <c r="M255" s="7" t="b">
@@ -15845,7 +15905,7 @@
         <v>22060</v>
       </c>
       <c r="R255" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -15879,11 +15939,11 @@
         <v>1000</v>
       </c>
       <c r="K256" s="7">
-        <f t="shared" ref="K256:K266" si="9">VALUE($K$255)</f>
+        <f t="shared" ref="K256:K266" si="10">VALUE($K$255)</f>
         <v>12.976470588235316</v>
       </c>
       <c r="L256" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-987.02352941176468</v>
       </c>
       <c r="M256" s="7" t="b">
@@ -15903,7 +15963,7 @@
         <v>22060</v>
       </c>
       <c r="R256" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -15937,11 +15997,11 @@
         <v>1000</v>
       </c>
       <c r="K257" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>12.976470588235316</v>
       </c>
       <c r="L257" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-987.02352941176468</v>
       </c>
       <c r="M257" s="7" t="b">
@@ -15961,7 +16021,7 @@
         <v>22060</v>
       </c>
       <c r="R257" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -15995,11 +16055,11 @@
         <v>1000</v>
       </c>
       <c r="K258" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>12.976470588235316</v>
       </c>
       <c r="L258" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-987.02352941176468</v>
       </c>
       <c r="M258" s="7" t="b">
@@ -16019,7 +16079,7 @@
         <v>372060</v>
       </c>
       <c r="R258" s="12" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -16053,11 +16113,11 @@
         <v>1000</v>
       </c>
       <c r="K259" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>12.976470588235316</v>
       </c>
       <c r="L259" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-987.02352941176468</v>
       </c>
       <c r="M259" s="7" t="b">
@@ -16077,7 +16137,7 @@
         <v>422060</v>
       </c>
       <c r="R259" s="12" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -16111,11 +16171,11 @@
         <v>1000</v>
       </c>
       <c r="K260" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>12.976470588235316</v>
       </c>
       <c r="L260" s="7">
-        <f t="shared" ref="L260:L266" si="10">K260-J260</f>
+        <f t="shared" ref="L260:L266" si="11">K260-J260</f>
         <v>-987.02352941176468</v>
       </c>
       <c r="M260" s="7" t="b">
@@ -16135,7 +16195,7 @@
         <v>122060</v>
       </c>
       <c r="R260" s="12" t="e">
-        <f t="shared" ref="R260:R266" si="11">N260-Q260</f>
+        <f t="shared" ref="R260:R266" si="12">N260-Q260</f>
         <v>#REF!</v>
       </c>
     </row>
@@ -16169,11 +16229,11 @@
         <v>1000</v>
       </c>
       <c r="K261" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>12.976470588235316</v>
       </c>
       <c r="L261" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-987.02352941176468</v>
       </c>
       <c r="M261" s="7" t="b">
@@ -16193,7 +16253,7 @@
         <v>572060</v>
       </c>
       <c r="R261" s="12" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -16227,11 +16287,11 @@
         <v>1000</v>
       </c>
       <c r="K262" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>12.976470588235316</v>
       </c>
       <c r="L262" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-987.02352941176468</v>
       </c>
       <c r="M262" s="7" t="b">
@@ -16251,7 +16311,7 @@
         <v>352060</v>
       </c>
       <c r="R262" s="12" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -16285,11 +16345,11 @@
         <v>1000</v>
       </c>
       <c r="K263" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>12.976470588235316</v>
       </c>
       <c r="L263" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-987.02352941176468</v>
       </c>
       <c r="M263" s="7" t="b">
@@ -16309,7 +16369,7 @@
         <v>252060</v>
       </c>
       <c r="R263" s="12" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -16343,11 +16403,11 @@
         <v>1000</v>
       </c>
       <c r="K264" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>12.976470588235316</v>
       </c>
       <c r="L264" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-987.02352941176468</v>
       </c>
       <c r="M264" s="7" t="b">
@@ -16367,7 +16427,7 @@
         <v>22060</v>
       </c>
       <c r="R264" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -16401,11 +16461,11 @@
         <v>1000</v>
       </c>
       <c r="K265" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>12.976470588235316</v>
       </c>
       <c r="L265" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-987.02352941176468</v>
       </c>
       <c r="M265" s="7" t="b">
@@ -16425,7 +16485,7 @@
         <v>192060</v>
       </c>
       <c r="R265" s="12" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>#REF!</v>
       </c>
     </row>
@@ -16459,11 +16519,11 @@
         <v>1000</v>
       </c>
       <c r="K266" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>12.976470588235316</v>
       </c>
       <c r="L266" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-987.02352941176468</v>
       </c>
       <c r="M266" s="7" t="b">
@@ -16483,7 +16543,7 @@
         <v>22060</v>
       </c>
       <c r="R266" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -16504,7 +16564,7 @@
   <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16515,567 +16575,571 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="25" t="s">
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="28" t="s">
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="51" t="s">
+      <c r="M1" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="27"/>
-      <c r="B2" s="49" t="s">
+      <c r="A2" s="40"/>
+      <c r="B2" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="28"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51"/>
+      <c r="J2" s="43"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="39">
-        <v>1</v>
-      </c>
-      <c r="B3" s="44">
+      <c r="A3" s="27">
+        <v>1</v>
+      </c>
+      <c r="B3" s="32">
         <f t="shared" ref="B3:B12" si="0">A3^2</f>
         <v>1</v>
       </c>
-      <c r="C3" s="44">
+      <c r="C3" s="32">
         <f t="shared" ref="C3:C12" si="1">A3^3</f>
         <v>1</v>
       </c>
-      <c r="D3" s="44">
+      <c r="D3" s="32">
         <f t="shared" ref="D3:D12" si="2">A3^4</f>
         <v>1</v>
       </c>
-      <c r="E3" s="41">
+      <c r="E3" s="29">
         <v>1620</v>
       </c>
-      <c r="F3" s="41">
+      <c r="F3" s="29">
         <v>-64.166666000000006</v>
       </c>
-      <c r="G3" s="41">
+      <c r="G3" s="29">
         <v>25</v>
       </c>
-      <c r="H3" s="41">
+      <c r="H3" s="29">
         <v>-0.83333332999999998</v>
       </c>
-      <c r="I3" s="41">
+      <c r="I3" s="29">
         <v>7290</v>
       </c>
-      <c r="J3" s="50">
+      <c r="J3" s="34">
         <f>A3*E3+B3*F3+C3*G3+D3*H3+I3</f>
         <v>8870.0000006699993</v>
       </c>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="51"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="39">
+      <c r="A4" s="27">
         <v>2</v>
       </c>
-      <c r="B4" s="44">
+      <c r="B4" s="32">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C4" s="44">
+      <c r="C4" s="32">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="D4" s="44">
+      <c r="D4" s="32">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="20">
         <f>$E$3</f>
         <v>1620</v>
       </c>
-      <c r="F4" s="24">
+      <c r="F4" s="20">
         <f t="shared" ref="F4:F5" si="3">$F$3</f>
         <v>-64.166666000000006</v>
       </c>
-      <c r="G4" s="24">
+      <c r="G4" s="20">
         <f t="shared" ref="G4:G5" si="4">$G$3</f>
         <v>25</v>
       </c>
-      <c r="H4" s="24">
+      <c r="H4" s="20">
         <f t="shared" ref="H4:H5" si="5">$H$3</f>
         <v>-0.83333332999999998</v>
       </c>
-      <c r="I4" s="24">
+      <c r="I4" s="20">
         <f t="shared" ref="I4:I5" si="6">$I$3</f>
         <v>7290</v>
       </c>
-      <c r="J4" s="50">
+      <c r="J4" s="34">
         <f t="shared" ref="J4:J12" si="7">A4*E4+B4*F4+C4*G4+D4*H4+I4</f>
         <v>10460.00000272</v>
       </c>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51"/>
-      <c r="O4" s="51"/>
-      <c r="P4" s="51"/>
-      <c r="Q4" s="51"/>
-      <c r="R4" s="51"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="39">
+      <c r="A5" s="27">
         <v>3</v>
       </c>
-      <c r="B5" s="44">
+      <c r="B5" s="32">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C5" s="44">
+      <c r="C5" s="32">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="D5" s="44">
+      <c r="D5" s="32">
         <f t="shared" si="2"/>
         <v>81</v>
       </c>
-      <c r="E5" s="24">
-        <f t="shared" ref="E4:E5" si="8">$E$3</f>
+      <c r="E5" s="20">
+        <f t="shared" ref="E5" si="8">$E$3</f>
         <v>1620</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="20">
         <f t="shared" si="3"/>
         <v>-64.166666000000006</v>
       </c>
-      <c r="G5" s="24">
+      <c r="G5" s="20">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="H5" s="24">
+      <c r="H5" s="20">
         <f t="shared" si="5"/>
         <v>-0.83333332999999998</v>
       </c>
-      <c r="I5" s="24">
+      <c r="I5" s="20">
         <f t="shared" si="6"/>
         <v>7290</v>
       </c>
-      <c r="J5" s="50">
+      <c r="J5" s="34">
         <f t="shared" si="7"/>
         <v>12180.00000627</v>
       </c>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="51"/>
-      <c r="Q5" s="51"/>
-      <c r="R5" s="51"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="37"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="39">
+      <c r="A6" s="27">
         <v>4</v>
       </c>
-      <c r="B6" s="44">
+      <c r="B6" s="32">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C6" s="44">
+      <c r="C6" s="32">
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="D6" s="44">
+      <c r="D6" s="32">
         <f t="shared" si="2"/>
         <v>256</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="20">
         <f>$E$3</f>
         <v>1620</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="20">
         <f>$F$3</f>
         <v>-64.166666000000006</v>
       </c>
-      <c r="G6" s="24">
+      <c r="G6" s="20">
         <f>$G$3</f>
         <v>25</v>
       </c>
-      <c r="H6" s="24">
+      <c r="H6" s="20">
         <f>$H$3</f>
         <v>-0.83333332999999998</v>
       </c>
-      <c r="I6" s="24">
+      <c r="I6" s="20">
         <f>$I$3</f>
         <v>7290</v>
       </c>
-      <c r="J6" s="50">
+      <c r="J6" s="34">
         <f t="shared" si="7"/>
         <v>14130.00001152</v>
       </c>
-      <c r="M6" s="51"/>
-      <c r="N6" s="51"/>
-      <c r="O6" s="51"/>
-      <c r="P6" s="51"/>
-      <c r="Q6" s="51"/>
-      <c r="R6" s="51"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="37"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="39">
+      <c r="A7" s="27">
         <v>5</v>
       </c>
-      <c r="B7" s="44">
+      <c r="B7" s="32">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="C7" s="44">
+      <c r="C7" s="32">
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
-      <c r="D7" s="44">
+      <c r="D7" s="32">
         <f t="shared" si="2"/>
         <v>625</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="20">
         <f>$E$3</f>
         <v>1620</v>
       </c>
-      <c r="F7" s="24">
+      <c r="F7" s="20">
         <f>$F$3</f>
         <v>-64.166666000000006</v>
       </c>
-      <c r="G7" s="24">
+      <c r="G7" s="20">
         <f>$G$3</f>
         <v>25</v>
       </c>
-      <c r="H7" s="24">
+      <c r="H7" s="20">
         <f>$H$3</f>
         <v>-0.83333332999999998</v>
       </c>
-      <c r="I7" s="24">
+      <c r="I7" s="20">
         <f>$I$3</f>
         <v>7290</v>
       </c>
-      <c r="J7" s="50">
+      <c r="J7" s="34">
         <f t="shared" si="7"/>
         <v>16390.000018750001</v>
       </c>
-      <c r="M7" s="15" t="s">
+      <c r="M7" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="39">
+      <c r="A8" s="27">
         <v>6</v>
       </c>
-      <c r="B8" s="44">
+      <c r="B8" s="32">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="C8" s="44">
+      <c r="C8" s="32">
         <f t="shared" si="1"/>
         <v>216</v>
       </c>
-      <c r="D8" s="44">
+      <c r="D8" s="32">
         <f t="shared" si="2"/>
         <v>1296</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="20">
         <f>$E$3</f>
         <v>1620</v>
       </c>
-      <c r="F8" s="24">
+      <c r="F8" s="20">
         <f>$F$3</f>
         <v>-64.166666000000006</v>
       </c>
-      <c r="G8" s="24">
+      <c r="G8" s="20">
         <f>$G$3</f>
         <v>25</v>
       </c>
-      <c r="H8" s="24">
+      <c r="H8" s="20">
         <f>$H$3</f>
         <v>-0.83333332999999998</v>
       </c>
-      <c r="I8" s="24">
+      <c r="I8" s="20">
         <f>$I$3</f>
         <v>7290</v>
       </c>
-      <c r="J8" s="50">
+      <c r="J8" s="34">
         <f t="shared" si="7"/>
         <v>19020.000028319999</v>
       </c>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="38"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="39">
+      <c r="A9" s="27">
         <v>7</v>
       </c>
-      <c r="B9" s="44">
+      <c r="B9" s="32">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="C9" s="44">
+      <c r="C9" s="32">
         <f t="shared" si="1"/>
         <v>343</v>
       </c>
-      <c r="D9" s="44">
+      <c r="D9" s="32">
         <f t="shared" si="2"/>
         <v>2401</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="20">
         <f>$E$3</f>
         <v>1620</v>
       </c>
-      <c r="F9" s="24">
+      <c r="F9" s="20">
         <f>$F$3</f>
         <v>-64.166666000000006</v>
       </c>
-      <c r="G9" s="24">
+      <c r="G9" s="20">
         <f>$G$3</f>
         <v>25</v>
       </c>
-      <c r="H9" s="24">
+      <c r="H9" s="20">
         <f>$H$3</f>
         <v>-0.83333332999999998</v>
       </c>
-      <c r="I9" s="24">
+      <c r="I9" s="20">
         <f>$I$3</f>
         <v>7290</v>
       </c>
-      <c r="J9" s="50">
+      <c r="J9" s="34">
         <f t="shared" si="7"/>
         <v>22060.000040669998</v>
       </c>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="38"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="39">
+      <c r="A10" s="27">
         <v>8</v>
       </c>
-      <c r="B10" s="44">
+      <c r="B10" s="32">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="C10" s="44">
+      <c r="C10" s="32">
         <f t="shared" si="1"/>
         <v>512</v>
       </c>
-      <c r="D10" s="44">
+      <c r="D10" s="32">
         <f t="shared" si="2"/>
         <v>4096</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="20">
         <f t="shared" ref="E10:E11" si="9">$E$3</f>
         <v>1620</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F10" s="20">
         <f t="shared" ref="F10:F11" si="10">$F$3</f>
         <v>-64.166666000000006</v>
       </c>
-      <c r="G10" s="24">
+      <c r="G10" s="20">
         <f t="shared" ref="G10:G11" si="11">$G$3</f>
         <v>25</v>
       </c>
-      <c r="H10" s="24">
+      <c r="H10" s="20">
         <f t="shared" ref="H10:H11" si="12">$H$3</f>
         <v>-0.83333332999999998</v>
       </c>
-      <c r="I10" s="24">
+      <c r="I10" s="20">
         <f t="shared" ref="I10:I11" si="13">$I$3</f>
         <v>7290</v>
       </c>
-      <c r="J10" s="50">
+      <c r="J10" s="34">
         <f t="shared" si="7"/>
         <v>25530.000056319997</v>
       </c>
-      <c r="M10" s="51" t="s">
-        <v>54</v>
-      </c>
-      <c r="N10" s="51"/>
-      <c r="O10" s="51"/>
-      <c r="P10" s="51"/>
-      <c r="Q10" s="51"/>
-      <c r="R10" s="51"/>
+      <c r="M10" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="N10" s="55"/>
+      <c r="O10" s="55"/>
+      <c r="P10" s="55"/>
+      <c r="Q10" s="55"/>
+      <c r="R10" s="55"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="39">
+      <c r="A11" s="27">
         <v>9</v>
       </c>
-      <c r="B11" s="44">
+      <c r="B11" s="32">
         <f t="shared" si="0"/>
         <v>81</v>
       </c>
-      <c r="C11" s="44">
+      <c r="C11" s="32">
         <f t="shared" si="1"/>
         <v>729</v>
       </c>
-      <c r="D11" s="44">
+      <c r="D11" s="32">
         <f t="shared" si="2"/>
         <v>6561</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="20">
         <f t="shared" si="9"/>
         <v>1620</v>
       </c>
-      <c r="F11" s="24">
+      <c r="F11" s="20">
         <f t="shared" si="10"/>
         <v>-64.166666000000006</v>
       </c>
-      <c r="G11" s="24">
+      <c r="G11" s="20">
         <f t="shared" si="11"/>
         <v>25</v>
       </c>
-      <c r="H11" s="24">
+      <c r="H11" s="20">
         <f t="shared" si="12"/>
         <v>-0.83333332999999998</v>
       </c>
-      <c r="I11" s="24">
+      <c r="I11" s="20">
         <f t="shared" si="13"/>
         <v>7290</v>
       </c>
-      <c r="J11" s="50">
+      <c r="J11" s="34">
         <f t="shared" si="7"/>
         <v>29430.000075870001</v>
       </c>
-      <c r="M11" s="51"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="51"/>
-      <c r="P11" s="51"/>
-      <c r="Q11" s="51"/>
-      <c r="R11" s="51"/>
+      <c r="M11" s="55"/>
+      <c r="N11" s="55"/>
+      <c r="O11" s="55"/>
+      <c r="P11" s="55"/>
+      <c r="Q11" s="55"/>
+      <c r="R11" s="55"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="39">
+      <c r="A12" s="27">
         <v>10</v>
       </c>
-      <c r="B12" s="44">
+      <c r="B12" s="32">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="C12" s="44">
+      <c r="C12" s="32">
         <f t="shared" si="1"/>
         <v>1000</v>
       </c>
-      <c r="D12" s="44">
+      <c r="D12" s="32">
         <f t="shared" si="2"/>
         <v>10000</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="20">
         <f>$E$3</f>
         <v>1620</v>
       </c>
-      <c r="F12" s="24">
+      <c r="F12" s="20">
         <f>$F$3</f>
         <v>-64.166666000000006</v>
       </c>
-      <c r="G12" s="24">
+      <c r="G12" s="20">
         <f>$G$3</f>
         <v>25</v>
       </c>
-      <c r="H12" s="24">
+      <c r="H12" s="20">
         <f>$H$3</f>
         <v>-0.83333332999999998</v>
       </c>
-      <c r="I12" s="24">
+      <c r="I12" s="20">
         <f>$I$3</f>
         <v>7290</v>
       </c>
-      <c r="J12" s="50">
+      <c r="J12" s="34">
         <f t="shared" si="7"/>
         <v>33740.000100000005</v>
       </c>
-      <c r="M12" s="51"/>
-      <c r="N12" s="51"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="51"/>
-      <c r="Q12" s="51"/>
-      <c r="R12" s="51"/>
+      <c r="M12" s="55"/>
+      <c r="N12" s="55"/>
+      <c r="O12" s="55"/>
+      <c r="P12" s="55"/>
+      <c r="Q12" s="55"/>
+      <c r="R12" s="55"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="M13" s="53"/>
-      <c r="N13" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="O13" s="51"/>
-      <c r="P13" s="51"/>
-      <c r="Q13" s="51"/>
-      <c r="R13" s="51"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="O13" s="37"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="37"/>
+      <c r="R13" s="37"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="M14" s="15"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="51"/>
-      <c r="P14" s="51"/>
-      <c r="Q14" s="51"/>
-      <c r="R14" s="51"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="37"/>
+      <c r="Q14" s="37"/>
+      <c r="R14" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="J1:J2"/>
     <mergeCell ref="N13:R14"/>
     <mergeCell ref="M1:R6"/>
     <mergeCell ref="M7:R9"/>
     <mergeCell ref="M10:R12"/>
     <mergeCell ref="M13:M14"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:I1"/>
-    <mergeCell ref="J1:J2"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="M10:R12" r:id="rId1" display="Ссылка на файл с исходным кодом расчётов: https://github.com/TyurinIvan/testTasks/blob/master/Analytical%20test%20task/salary_analytics.ipynb"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -17083,602 +17147,602 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W402"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W26" sqref="W26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="4" width="15.21875" style="16" customWidth="1"/>
+    <col min="2" max="4" width="15.21875" style="15" customWidth="1"/>
     <col min="5" max="9" width="10.6640625" customWidth="1"/>
     <col min="10" max="10" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="45" t="s">
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="28" t="s">
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="M1" s="51" t="s">
+      <c r="M1" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
       <c r="W1" s="14"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A2" s="27"/>
-      <c r="B2" s="49" t="s">
+      <c r="A2" s="40"/>
+      <c r="B2" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="H2" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="30" t="s">
+      <c r="I2" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="28"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51"/>
+      <c r="J2" s="43"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
       <c r="U2" s="14"/>
       <c r="V2" s="14"/>
       <c r="W2" s="14"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A3" s="39">
-        <v>1</v>
-      </c>
-      <c r="B3" s="44">
+      <c r="A3" s="27">
+        <v>1</v>
+      </c>
+      <c r="B3" s="32">
         <f t="shared" ref="B3:B12" si="0">A3^2</f>
         <v>1</v>
       </c>
-      <c r="C3" s="44">
+      <c r="C3" s="32">
         <f t="shared" ref="C3:C12" si="1">A3^3</f>
         <v>1</v>
       </c>
-      <c r="D3" s="44">
+      <c r="D3" s="32">
         <f t="shared" ref="D3:D12" si="2">A3^4</f>
         <v>1</v>
       </c>
-      <c r="E3" s="42">
+      <c r="E3" s="30">
         <v>0.95294117599999995</v>
       </c>
-      <c r="F3" s="42">
+      <c r="F3" s="30">
         <v>-3.7745097999999998E-2</v>
       </c>
-      <c r="G3" s="42">
+      <c r="G3" s="30">
         <v>1.47058824E-2</v>
       </c>
-      <c r="H3" s="42">
+      <c r="H3" s="30">
         <v>-4.9019607800000005E-4</v>
       </c>
-      <c r="I3" s="42">
+      <c r="I3" s="30">
         <v>4.2882352900000003</v>
       </c>
-      <c r="J3" s="21">
+      <c r="J3" s="18">
         <f>A3*E3+B3*F3+C3*G3+D3*H3+I3</f>
         <v>5.2176470543220006</v>
       </c>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="51"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
       <c r="U3" s="14"/>
       <c r="V3" s="14"/>
       <c r="W3" s="14"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A4" s="39">
+      <c r="A4" s="27">
         <v>2</v>
       </c>
-      <c r="B4" s="44">
+      <c r="B4" s="32">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C4" s="44">
+      <c r="C4" s="32">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="D4" s="44">
+      <c r="D4" s="32">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="E4" s="37">
+      <c r="E4" s="26">
         <f>E$3</f>
         <v>0.95294117599999995</v>
       </c>
-      <c r="F4" s="37">
+      <c r="F4" s="26">
         <f t="shared" ref="F4:I12" si="3">F$3</f>
         <v>-3.7745097999999998E-2</v>
       </c>
-      <c r="G4" s="37">
+      <c r="G4" s="26">
         <f t="shared" si="3"/>
         <v>1.47058824E-2</v>
       </c>
-      <c r="H4" s="37">
+      <c r="H4" s="26">
         <f t="shared" si="3"/>
         <v>-4.9019607800000005E-4</v>
       </c>
-      <c r="I4" s="37">
+      <c r="I4" s="26">
         <f t="shared" si="3"/>
         <v>4.2882352900000003</v>
       </c>
-      <c r="J4" s="21">
+      <c r="J4" s="18">
         <f t="shared" ref="J4:J12" si="4">A4*E4+B4*F4+C4*G4+D4*H4+I4</f>
         <v>6.1529411719520004</v>
       </c>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51"/>
-      <c r="O4" s="51"/>
-      <c r="P4" s="51"/>
-      <c r="Q4" s="51"/>
-      <c r="R4" s="51"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37"/>
       <c r="U4" s="14"/>
       <c r="V4" s="14"/>
       <c r="W4" s="14"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A5" s="39">
+      <c r="A5" s="27">
         <v>3</v>
       </c>
-      <c r="B5" s="44">
+      <c r="B5" s="32">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C5" s="44">
+      <c r="C5" s="32">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="D5" s="44">
+      <c r="D5" s="32">
         <f t="shared" si="2"/>
         <v>81</v>
       </c>
-      <c r="E5" s="37">
+      <c r="E5" s="26">
         <f t="shared" ref="E5:E12" si="5">E$3</f>
         <v>0.95294117599999995</v>
       </c>
-      <c r="F5" s="37">
+      <c r="F5" s="26">
         <f t="shared" si="3"/>
         <v>-3.7745097999999998E-2</v>
       </c>
-      <c r="G5" s="37">
+      <c r="G5" s="26">
         <f t="shared" si="3"/>
         <v>1.47058824E-2</v>
       </c>
-      <c r="H5" s="37">
+      <c r="H5" s="26">
         <f t="shared" si="3"/>
         <v>-4.9019607800000005E-4</v>
       </c>
-      <c r="I5" s="37">
+      <c r="I5" s="26">
         <f t="shared" si="3"/>
         <v>4.2882352900000003</v>
       </c>
-      <c r="J5" s="21">
+      <c r="J5" s="18">
         <f t="shared" si="4"/>
         <v>7.1647058784819997</v>
       </c>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="51"/>
-      <c r="Q5" s="51"/>
-      <c r="R5" s="51"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="37"/>
       <c r="U5" s="14"/>
       <c r="V5" s="14"/>
       <c r="W5" s="14"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A6" s="39">
+      <c r="A6" s="27">
         <v>4</v>
       </c>
-      <c r="B6" s="44">
+      <c r="B6" s="32">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C6" s="44">
+      <c r="C6" s="32">
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="D6" s="44">
+      <c r="D6" s="32">
         <f t="shared" si="2"/>
         <v>256</v>
       </c>
-      <c r="E6" s="37">
+      <c r="E6" s="26">
         <f t="shared" si="5"/>
         <v>0.95294117599999995</v>
       </c>
-      <c r="F6" s="37">
+      <c r="F6" s="26">
         <f t="shared" si="3"/>
         <v>-3.7745097999999998E-2</v>
       </c>
-      <c r="G6" s="37">
+      <c r="G6" s="26">
         <f t="shared" si="3"/>
         <v>1.47058824E-2</v>
       </c>
-      <c r="H6" s="37">
+      <c r="H6" s="26">
         <f t="shared" si="3"/>
         <v>-4.9019607800000005E-4</v>
       </c>
-      <c r="I6" s="37">
+      <c r="I6" s="26">
         <f t="shared" si="3"/>
         <v>4.2882352900000003</v>
       </c>
-      <c r="J6" s="21">
+      <c r="J6" s="18">
         <f t="shared" si="4"/>
         <v>8.3117647036320008</v>
       </c>
-      <c r="M6" s="51"/>
-      <c r="N6" s="51"/>
-      <c r="O6" s="51"/>
-      <c r="P6" s="51"/>
-      <c r="Q6" s="51"/>
-      <c r="R6" s="51"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="37"/>
       <c r="U6" s="14"/>
       <c r="V6" s="14"/>
       <c r="W6" s="14"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A7" s="39">
+      <c r="A7" s="27">
         <v>5</v>
       </c>
-      <c r="B7" s="44">
+      <c r="B7" s="32">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="C7" s="44">
+      <c r="C7" s="32">
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
-      <c r="D7" s="44">
+      <c r="D7" s="32">
         <f t="shared" si="2"/>
         <v>625</v>
       </c>
-      <c r="E7" s="37">
+      <c r="E7" s="26">
         <f t="shared" si="5"/>
         <v>0.95294117599999995</v>
       </c>
-      <c r="F7" s="37">
+      <c r="F7" s="26">
         <f t="shared" si="3"/>
         <v>-3.7745097999999998E-2</v>
       </c>
-      <c r="G7" s="37">
+      <c r="G7" s="26">
         <f t="shared" si="3"/>
         <v>1.47058824E-2</v>
       </c>
-      <c r="H7" s="37">
+      <c r="H7" s="26">
         <f t="shared" si="3"/>
         <v>-4.9019607800000005E-4</v>
       </c>
-      <c r="I7" s="37">
+      <c r="I7" s="26">
         <f t="shared" si="3"/>
         <v>4.2882352900000003</v>
       </c>
-      <c r="J7" s="21">
+      <c r="J7" s="18">
         <f t="shared" si="4"/>
         <v>9.6411764712499988</v>
       </c>
-      <c r="M7" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
+      <c r="M7" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38"/>
       <c r="U7" s="14"/>
       <c r="V7" s="14"/>
       <c r="W7" s="14"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A8" s="39">
+      <c r="A8" s="27">
         <v>6</v>
       </c>
-      <c r="B8" s="44">
+      <c r="B8" s="32">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="C8" s="44">
+      <c r="C8" s="32">
         <f t="shared" si="1"/>
         <v>216</v>
       </c>
-      <c r="D8" s="44">
+      <c r="D8" s="32">
         <f t="shared" si="2"/>
         <v>1296</v>
       </c>
-      <c r="E8" s="37">
+      <c r="E8" s="26">
         <f t="shared" si="5"/>
         <v>0.95294117599999995</v>
       </c>
-      <c r="F8" s="37">
+      <c r="F8" s="26">
         <f t="shared" si="3"/>
         <v>-3.7745097999999998E-2</v>
       </c>
-      <c r="G8" s="37">
+      <c r="G8" s="26">
         <f t="shared" si="3"/>
         <v>1.47058824E-2</v>
       </c>
-      <c r="H8" s="37">
+      <c r="H8" s="26">
         <f t="shared" si="3"/>
         <v>-4.9019607800000005E-4</v>
       </c>
-      <c r="I8" s="37">
+      <c r="I8" s="26">
         <f t="shared" si="3"/>
         <v>4.2882352900000003</v>
       </c>
-      <c r="J8" s="21">
+      <c r="J8" s="18">
         <f t="shared" si="4"/>
         <v>11.188235299312002</v>
       </c>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="38"/>
       <c r="U8" s="14"/>
       <c r="V8" s="14"/>
       <c r="W8" s="14"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A9" s="39">
+      <c r="A9" s="27">
         <v>7</v>
       </c>
-      <c r="B9" s="44">
+      <c r="B9" s="32">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="C9" s="44">
+      <c r="C9" s="32">
         <f t="shared" si="1"/>
         <v>343</v>
       </c>
-      <c r="D9" s="44">
+      <c r="D9" s="32">
         <f t="shared" si="2"/>
         <v>2401</v>
       </c>
-      <c r="E9" s="37">
+      <c r="E9" s="26">
         <f t="shared" si="5"/>
         <v>0.95294117599999995</v>
       </c>
-      <c r="F9" s="37">
+      <c r="F9" s="26">
         <f t="shared" si="3"/>
         <v>-3.7745097999999998E-2</v>
       </c>
-      <c r="G9" s="37">
+      <c r="G9" s="26">
         <f t="shared" si="3"/>
         <v>1.47058824E-2</v>
       </c>
-      <c r="H9" s="37">
+      <c r="H9" s="26">
         <f t="shared" si="3"/>
         <v>-4.9019607800000005E-4</v>
       </c>
-      <c r="I9" s="37">
+      <c r="I9" s="26">
         <f t="shared" si="3"/>
         <v>4.2882352900000003</v>
       </c>
-      <c r="J9" s="21">
+      <c r="J9" s="18">
         <f t="shared" si="4"/>
         <v>12.976470599921999</v>
       </c>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="38"/>
       <c r="U9" s="14"/>
       <c r="V9" s="14"/>
       <c r="W9" s="14"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A10" s="39">
+      <c r="A10" s="27">
         <v>8</v>
       </c>
-      <c r="B10" s="44">
+      <c r="B10" s="32">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="C10" s="44">
+      <c r="C10" s="32">
         <f t="shared" si="1"/>
         <v>512</v>
       </c>
-      <c r="D10" s="44">
+      <c r="D10" s="32">
         <f t="shared" si="2"/>
         <v>4096</v>
       </c>
-      <c r="E10" s="37">
+      <c r="E10" s="26">
         <f t="shared" si="5"/>
         <v>0.95294117599999995</v>
       </c>
-      <c r="F10" s="37">
+      <c r="F10" s="26">
         <f t="shared" si="3"/>
         <v>-3.7745097999999998E-2</v>
       </c>
-      <c r="G10" s="37">
+      <c r="G10" s="26">
         <f t="shared" si="3"/>
         <v>1.47058824E-2</v>
       </c>
-      <c r="H10" s="37">
+      <c r="H10" s="26">
         <f t="shared" si="3"/>
         <v>-4.9019607800000005E-4</v>
       </c>
-      <c r="I10" s="37">
+      <c r="I10" s="26">
         <f t="shared" si="3"/>
         <v>4.2882352900000003</v>
       </c>
-      <c r="J10" s="21">
+      <c r="J10" s="18">
         <f t="shared" si="4"/>
         <v>15.017647079311999</v>
       </c>
-      <c r="M10" s="51" t="s">
+      <c r="M10" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="N10" s="51"/>
-      <c r="O10" s="51"/>
-      <c r="P10" s="51"/>
-      <c r="Q10" s="51"/>
-      <c r="R10" s="51"/>
+      <c r="N10" s="37"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="37"/>
+      <c r="Q10" s="37"/>
+      <c r="R10" s="37"/>
       <c r="U10" s="14"/>
       <c r="V10" s="14"/>
       <c r="W10" s="14"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A11" s="39">
+      <c r="A11" s="27">
         <v>9</v>
       </c>
-      <c r="B11" s="44">
+      <c r="B11" s="32">
         <f t="shared" si="0"/>
         <v>81</v>
       </c>
-      <c r="C11" s="44">
+      <c r="C11" s="32">
         <f t="shared" si="1"/>
         <v>729</v>
       </c>
-      <c r="D11" s="44">
+      <c r="D11" s="32">
         <f t="shared" si="2"/>
         <v>6561</v>
       </c>
-      <c r="E11" s="37">
+      <c r="E11" s="26">
         <f t="shared" si="5"/>
         <v>0.95294117599999995</v>
       </c>
-      <c r="F11" s="37">
+      <c r="F11" s="26">
         <f t="shared" si="3"/>
         <v>-3.7745097999999998E-2</v>
       </c>
-      <c r="G11" s="37">
+      <c r="G11" s="26">
         <f t="shared" si="3"/>
         <v>1.47058824E-2</v>
       </c>
-      <c r="H11" s="37">
+      <c r="H11" s="26">
         <f t="shared" si="3"/>
         <v>-4.9019607800000005E-4</v>
       </c>
-      <c r="I11" s="37">
+      <c r="I11" s="26">
         <f t="shared" si="3"/>
         <v>4.2882352900000003</v>
       </c>
-      <c r="J11" s="21">
+      <c r="J11" s="18">
         <f t="shared" si="4"/>
         <v>17.311764737841997</v>
       </c>
-      <c r="M11" s="51"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="51"/>
-      <c r="P11" s="51"/>
-      <c r="Q11" s="51"/>
-      <c r="R11" s="51"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="37"/>
+      <c r="R11" s="37"/>
       <c r="U11" s="14"/>
       <c r="V11" s="14"/>
       <c r="W11" s="14"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A12" s="39">
+      <c r="A12" s="27">
         <v>10</v>
       </c>
-      <c r="B12" s="44">
+      <c r="B12" s="32">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="C12" s="44">
+      <c r="C12" s="32">
         <f t="shared" si="1"/>
         <v>1000</v>
       </c>
-      <c r="D12" s="44">
+      <c r="D12" s="32">
         <f t="shared" si="2"/>
         <v>10000</v>
       </c>
-      <c r="E12" s="37">
+      <c r="E12" s="26">
         <f t="shared" si="5"/>
         <v>0.95294117599999995</v>
       </c>
-      <c r="F12" s="37">
+      <c r="F12" s="26">
         <f t="shared" si="3"/>
         <v>-3.7745097999999998E-2</v>
       </c>
-      <c r="G12" s="37">
+      <c r="G12" s="26">
         <f t="shared" si="3"/>
         <v>1.47058824E-2</v>
       </c>
-      <c r="H12" s="37">
+      <c r="H12" s="26">
         <f t="shared" si="3"/>
         <v>-4.9019607800000005E-4</v>
       </c>
-      <c r="I12" s="37">
+      <c r="I12" s="26">
         <f t="shared" si="3"/>
         <v>4.2882352900000003</v>
       </c>
-      <c r="J12" s="21">
+      <c r="J12" s="18">
         <f t="shared" si="4"/>
         <v>19.847058869999998</v>
       </c>
-      <c r="M12" s="51"/>
-      <c r="N12" s="51"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="51"/>
-      <c r="Q12" s="51"/>
-      <c r="R12" s="51"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="37"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="37"/>
+      <c r="Q12" s="37"/>
+      <c r="R12" s="37"/>
       <c r="U12" s="14"/>
       <c r="V12" s="14"/>
       <c r="W12" s="14"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="M13" s="53"/>
-      <c r="N13" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="O13" s="51"/>
-      <c r="P13" s="51"/>
-      <c r="Q13" s="51"/>
-      <c r="R13" s="51"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="O13" s="37"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="37"/>
+      <c r="R13" s="37"/>
       <c r="U13" s="14"/>
       <c r="V13" s="14"/>
       <c r="W13" s="14"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="M14" s="15"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="51"/>
-      <c r="P14" s="51"/>
-      <c r="Q14" s="51"/>
-      <c r="R14" s="51"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="37"/>
+      <c r="Q14" s="37"/>
+      <c r="R14" s="37"/>
       <c r="U14" s="14"/>
       <c r="V14" s="14"/>
       <c r="W14" s="14"/>
@@ -19656,1039 +19720,1045 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="35" t="s">
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="32" t="s">
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="18" t="s">
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="Q1" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="18" t="s">
+      <c r="R1" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="S1" s="32" t="s">
+      <c r="S1" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="T1" s="31" t="s">
+      <c r="T1" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="U1" s="31" t="s">
+      <c r="U1" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="V1" s="29" t="s">
+      <c r="V1" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="W1" s="19"/>
-      <c r="X1" s="28" t="s">
+      <c r="W1" s="16"/>
+      <c r="X1" s="43" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A2" s="17"/>
-      <c r="B2" s="39" t="s">
+      <c r="A2" s="54"/>
+      <c r="B2" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="36" t="s">
+      <c r="G2" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="36" t="s">
+      <c r="H2" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="36" t="s">
+      <c r="I2" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="32"/>
-      <c r="K2" s="24" t="s">
+      <c r="J2" s="48"/>
+      <c r="K2" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="L2" s="24" t="s">
+      <c r="L2" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="M2" s="24" t="s">
+      <c r="M2" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="N2" s="24" t="s">
+      <c r="N2" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="O2" s="24" t="s">
+      <c r="O2" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="31"/>
-      <c r="V2" s="29"/>
-      <c r="W2" s="19"/>
-      <c r="X2" s="28"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="50"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="43"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A3" s="20">
+      <c r="A3" s="17">
         <f>DataAnalytics!A2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="40">
+      <c r="B3" s="28">
         <f t="shared" ref="B3:B4" si="0">A3^2</f>
         <v>1</v>
       </c>
-      <c r="C3" s="40">
+      <c r="C3" s="28">
         <f t="shared" ref="C3:C4" si="1">A3^3</f>
         <v>1</v>
       </c>
-      <c r="D3" s="40">
+      <c r="D3" s="28">
         <f t="shared" ref="D3:D4" si="2">A3^4</f>
         <v>1</v>
       </c>
-      <c r="E3" s="41">
+      <c r="E3" s="29">
         <f>'Зав-ть Оклада от разряда'!E3</f>
         <v>1620</v>
       </c>
-      <c r="F3" s="41">
+      <c r="F3" s="29">
         <f>'Зав-ть Оклада от разряда'!F3</f>
         <v>-64.166666000000006</v>
       </c>
-      <c r="G3" s="41">
+      <c r="G3" s="29">
         <f>'Зав-ть Оклада от разряда'!G3</f>
         <v>25</v>
       </c>
-      <c r="H3" s="41">
+      <c r="H3" s="29">
         <f>'Зав-ть Оклада от разряда'!H3</f>
         <v>-0.83333332999999998</v>
       </c>
-      <c r="I3" s="41">
+      <c r="I3" s="29">
         <f>'Зав-ть Оклада от разряда'!I3</f>
         <v>7290</v>
       </c>
-      <c r="J3" s="20">
+      <c r="J3" s="17">
         <f>A3*E3+B3*F3+C3*G3+D3*H3+I3</f>
         <v>8870.0000006699993</v>
       </c>
-      <c r="K3" s="42">
+      <c r="K3" s="30">
         <f>'Зав-ть коэффициента от разряда'!E3</f>
         <v>0.95294117599999995</v>
       </c>
-      <c r="L3" s="42">
+      <c r="L3" s="30">
         <f>'Зав-ть коэффициента от разряда'!F3</f>
         <v>-3.7745097999999998E-2</v>
       </c>
-      <c r="M3" s="42">
+      <c r="M3" s="30">
         <f>'Зав-ть коэффициента от разряда'!G3</f>
         <v>1.47058824E-2</v>
       </c>
-      <c r="N3" s="42">
+      <c r="N3" s="30">
         <f>'Зав-ть коэффициента от разряда'!H3</f>
         <v>-4.9019607800000005E-4</v>
       </c>
-      <c r="O3" s="42">
+      <c r="O3" s="30">
         <f>'Зав-ть коэффициента от разряда'!I3</f>
         <v>4.2882352900000003</v>
       </c>
-      <c r="P3" s="33">
+      <c r="P3" s="23">
         <f>A3*K3+B3*L3+C3*M3+D3*N3+O3</f>
         <v>5.2176470543220006</v>
       </c>
-      <c r="Q3" s="43">
+      <c r="Q3" s="31">
         <v>850</v>
       </c>
-      <c r="R3" s="19">
+      <c r="R3" s="16">
         <v>850</v>
       </c>
-      <c r="S3" s="19">
+      <c r="S3" s="16">
         <f>IF(R3&gt;Q3,P3*(R3-Q3),0)</f>
         <v>0</v>
       </c>
-      <c r="T3" s="41">
+      <c r="T3" s="29">
         <v>180</v>
       </c>
-      <c r="U3" s="20">
-        <v>0</v>
-      </c>
-      <c r="V3" s="20">
+      <c r="U3" s="17">
+        <v>0</v>
+      </c>
+      <c r="V3" s="17">
         <f>IF(U3&gt;0,T3*U3,0)</f>
         <v>0</v>
       </c>
-      <c r="W3" s="19"/>
-      <c r="X3" s="22">
+      <c r="W3" s="16"/>
+      <c r="X3" s="19">
         <f>J3+S3+V3</f>
         <v>8870.0000006699993</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A4" s="20">
+      <c r="A4" s="17">
         <f>DataAnalytics!A3</f>
         <v>2</v>
       </c>
-      <c r="B4" s="40">
+      <c r="B4" s="28">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C4" s="40">
+      <c r="C4" s="28">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="D4" s="40">
+      <c r="D4" s="28">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="E4" s="36">
+      <c r="E4" s="25">
         <f t="shared" ref="E4:E5" si="3">$E$3</f>
         <v>1620</v>
       </c>
-      <c r="F4" s="36">
+      <c r="F4" s="25">
         <f t="shared" ref="F4:F5" si="4">$F$3</f>
         <v>-64.166666000000006</v>
       </c>
-      <c r="G4" s="36">
+      <c r="G4" s="25">
         <f t="shared" ref="G4:G5" si="5">$G$3</f>
         <v>25</v>
       </c>
-      <c r="H4" s="36">
+      <c r="H4" s="25">
         <f t="shared" ref="H4:H5" si="6">$H$3</f>
         <v>-0.83333332999999998</v>
       </c>
-      <c r="I4" s="36">
+      <c r="I4" s="25">
         <f t="shared" ref="I4:I5" si="7">$I$3</f>
         <v>7290</v>
       </c>
-      <c r="J4" s="20">
+      <c r="J4" s="17">
         <f t="shared" ref="J4:J9" si="8">A4*E4+B4*F4+C4*G4+D4*H4+I4</f>
         <v>10460.00000272</v>
       </c>
-      <c r="K4" s="37">
+      <c r="K4" s="26">
         <f t="shared" ref="K4:K5" si="9">$K$3</f>
         <v>0.95294117599999995</v>
       </c>
-      <c r="L4" s="37">
+      <c r="L4" s="26">
         <f t="shared" ref="L4:L5" si="10">$L$3</f>
         <v>-3.7745097999999998E-2</v>
       </c>
-      <c r="M4" s="37">
+      <c r="M4" s="26">
         <f t="shared" ref="M4:M5" si="11">$M$3</f>
         <v>1.47058824E-2</v>
       </c>
-      <c r="N4" s="37">
+      <c r="N4" s="26">
         <f t="shared" ref="N4:N5" si="12">$N$3</f>
         <v>-4.9019607800000005E-4</v>
       </c>
-      <c r="O4" s="37">
+      <c r="O4" s="26">
         <f t="shared" ref="O4:O5" si="13">$O$3</f>
         <v>4.2882352900000003</v>
       </c>
-      <c r="P4" s="33">
+      <c r="P4" s="23">
         <f t="shared" ref="P4:P9" si="14">A4*K4+B4*L4+C4*M4+D4*N4+O4</f>
         <v>6.1529411719520004</v>
       </c>
-      <c r="Q4" s="34">
+      <c r="Q4" s="24">
         <f>$Q$3</f>
         <v>850</v>
       </c>
-      <c r="R4" s="19">
+      <c r="R4" s="16">
         <v>850</v>
       </c>
-      <c r="S4" s="19">
+      <c r="S4" s="16">
         <f t="shared" ref="S4:S12" si="15">IF(R4&gt;Q4,P4*(R4-Q4),0)</f>
         <v>0</v>
       </c>
-      <c r="T4" s="20">
+      <c r="T4" s="17">
         <f>$T$3</f>
         <v>180</v>
       </c>
-      <c r="U4" s="20">
-        <v>0</v>
-      </c>
-      <c r="V4" s="20">
+      <c r="U4" s="17">
+        <v>0</v>
+      </c>
+      <c r="V4" s="17">
         <f t="shared" ref="V4:V12" si="16">IF(U4&gt;0,T4*U4,0)</f>
         <v>0</v>
       </c>
-      <c r="W4" s="19"/>
-      <c r="X4" s="22">
+      <c r="W4" s="16"/>
+      <c r="X4" s="19">
         <f t="shared" ref="X4:X9" si="17">J4+S4+V4</f>
         <v>10460.00000272</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A5" s="20">
+      <c r="A5" s="17">
         <f>DataAnalytics!A4</f>
         <v>3</v>
       </c>
-      <c r="B5" s="40">
+      <c r="B5" s="28">
         <f>A5^2</f>
         <v>9</v>
       </c>
-      <c r="C5" s="40">
+      <c r="C5" s="28">
         <f>A5^3</f>
         <v>27</v>
       </c>
-      <c r="D5" s="40">
+      <c r="D5" s="28">
         <f>A5^4</f>
         <v>81</v>
       </c>
-      <c r="E5" s="36">
+      <c r="E5" s="25">
         <f t="shared" si="3"/>
         <v>1620</v>
       </c>
-      <c r="F5" s="36">
+      <c r="F5" s="25">
         <f t="shared" si="4"/>
         <v>-64.166666000000006</v>
       </c>
-      <c r="G5" s="36">
+      <c r="G5" s="25">
         <f t="shared" si="5"/>
         <v>25</v>
       </c>
-      <c r="H5" s="36">
+      <c r="H5" s="25">
         <f t="shared" si="6"/>
         <v>-0.83333332999999998</v>
       </c>
-      <c r="I5" s="36">
+      <c r="I5" s="25">
         <f t="shared" si="7"/>
         <v>7290</v>
       </c>
-      <c r="J5" s="20">
+      <c r="J5" s="17">
         <f t="shared" si="8"/>
         <v>12180.00000627</v>
       </c>
-      <c r="K5" s="37">
+      <c r="K5" s="26">
         <f t="shared" si="9"/>
         <v>0.95294117599999995</v>
       </c>
-      <c r="L5" s="37">
+      <c r="L5" s="26">
         <f t="shared" si="10"/>
         <v>-3.7745097999999998E-2</v>
       </c>
-      <c r="M5" s="37">
+      <c r="M5" s="26">
         <f t="shared" si="11"/>
         <v>1.47058824E-2</v>
       </c>
-      <c r="N5" s="37">
+      <c r="N5" s="26">
         <f t="shared" si="12"/>
         <v>-4.9019607800000005E-4</v>
       </c>
-      <c r="O5" s="37">
+      <c r="O5" s="26">
         <f t="shared" si="13"/>
         <v>4.2882352900000003</v>
       </c>
-      <c r="P5" s="33">
+      <c r="P5" s="23">
         <f t="shared" si="14"/>
         <v>7.1647058784819997</v>
       </c>
-      <c r="Q5" s="34">
+      <c r="Q5" s="24">
         <f t="shared" ref="Q5:Q12" si="18">$Q$3</f>
         <v>850</v>
       </c>
-      <c r="R5" s="19">
+      <c r="R5" s="16">
         <v>850</v>
       </c>
-      <c r="S5" s="19">
+      <c r="S5" s="16">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="T5" s="20">
-        <f t="shared" ref="T4:T5" si="19">$T$3</f>
+      <c r="T5" s="17">
+        <f t="shared" ref="T5" si="19">$T$3</f>
         <v>180</v>
       </c>
-      <c r="U5" s="20">
-        <v>0</v>
-      </c>
-      <c r="V5" s="20">
+      <c r="U5" s="17">
+        <v>0</v>
+      </c>
+      <c r="V5" s="17">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="W5" s="19"/>
-      <c r="X5" s="22">
+      <c r="W5" s="16"/>
+      <c r="X5" s="19">
         <f t="shared" si="17"/>
         <v>12180.00000627</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A6" s="20">
+      <c r="A6" s="17">
         <f>DataAnalytics!A5</f>
         <v>4</v>
       </c>
-      <c r="B6" s="40">
+      <c r="B6" s="28">
         <f t="shared" ref="B6:B12" si="20">A6^2</f>
         <v>16</v>
       </c>
-      <c r="C6" s="40">
+      <c r="C6" s="28">
         <f t="shared" ref="C6:C12" si="21">A6^3</f>
         <v>64</v>
       </c>
-      <c r="D6" s="40">
+      <c r="D6" s="28">
         <f t="shared" ref="D6:D12" si="22">A6^4</f>
         <v>256</v>
       </c>
-      <c r="E6" s="36">
+      <c r="E6" s="25">
         <f>$E$3</f>
         <v>1620</v>
       </c>
-      <c r="F6" s="36">
+      <c r="F6" s="25">
         <f>$F$3</f>
         <v>-64.166666000000006</v>
       </c>
-      <c r="G6" s="36">
+      <c r="G6" s="25">
         <f>$G$3</f>
         <v>25</v>
       </c>
-      <c r="H6" s="36">
+      <c r="H6" s="25">
         <f>$H$3</f>
         <v>-0.83333332999999998</v>
       </c>
-      <c r="I6" s="36">
+      <c r="I6" s="25">
         <f>$I$3</f>
         <v>7290</v>
       </c>
-      <c r="J6" s="20">
+      <c r="J6" s="17">
         <f t="shared" si="8"/>
         <v>14130.00001152</v>
       </c>
-      <c r="K6" s="37">
+      <c r="K6" s="26">
         <f>$K$3</f>
         <v>0.95294117599999995</v>
       </c>
-      <c r="L6" s="37">
+      <c r="L6" s="26">
         <f>$L$3</f>
         <v>-3.7745097999999998E-2</v>
       </c>
-      <c r="M6" s="37">
+      <c r="M6" s="26">
         <f>$M$3</f>
         <v>1.47058824E-2</v>
       </c>
-      <c r="N6" s="37">
+      <c r="N6" s="26">
         <f>$N$3</f>
         <v>-4.9019607800000005E-4</v>
       </c>
-      <c r="O6" s="37">
+      <c r="O6" s="26">
         <f>$O$3</f>
         <v>4.2882352900000003</v>
       </c>
-      <c r="P6" s="33">
+      <c r="P6" s="23">
         <f t="shared" si="14"/>
         <v>8.3117647036320008</v>
       </c>
-      <c r="Q6" s="34">
+      <c r="Q6" s="24">
         <f t="shared" si="18"/>
         <v>850</v>
       </c>
-      <c r="R6" s="19">
+      <c r="R6" s="16">
         <v>850</v>
       </c>
-      <c r="S6" s="19">
+      <c r="S6" s="16">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="T6" s="20">
+      <c r="T6" s="17">
         <f>$T$3</f>
         <v>180</v>
       </c>
-      <c r="U6" s="20">
-        <v>0</v>
-      </c>
-      <c r="V6" s="20">
+      <c r="U6" s="17">
+        <v>0</v>
+      </c>
+      <c r="V6" s="17">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="W6" s="19"/>
-      <c r="X6" s="22">
+      <c r="W6" s="16"/>
+      <c r="X6" s="19">
         <f t="shared" si="17"/>
         <v>14130.00001152</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A7" s="20">
+      <c r="A7" s="17">
         <f>DataAnalytics!A6</f>
         <v>5</v>
       </c>
-      <c r="B7" s="40">
+      <c r="B7" s="28">
         <f t="shared" si="20"/>
         <v>25</v>
       </c>
-      <c r="C7" s="40">
+      <c r="C7" s="28">
         <f t="shared" si="21"/>
         <v>125</v>
       </c>
-      <c r="D7" s="40">
+      <c r="D7" s="28">
         <f t="shared" si="22"/>
         <v>625</v>
       </c>
-      <c r="E7" s="36">
+      <c r="E7" s="25">
         <f>$E$3</f>
         <v>1620</v>
       </c>
-      <c r="F7" s="36">
+      <c r="F7" s="25">
         <f>$F$3</f>
         <v>-64.166666000000006</v>
       </c>
-      <c r="G7" s="36">
+      <c r="G7" s="25">
         <f>$G$3</f>
         <v>25</v>
       </c>
-      <c r="H7" s="36">
+      <c r="H7" s="25">
         <f>$H$3</f>
         <v>-0.83333332999999998</v>
       </c>
-      <c r="I7" s="36">
+      <c r="I7" s="25">
         <f>$I$3</f>
         <v>7290</v>
       </c>
-      <c r="J7" s="20">
+      <c r="J7" s="17">
         <f t="shared" si="8"/>
         <v>16390.000018750001</v>
       </c>
-      <c r="K7" s="37">
+      <c r="K7" s="26">
         <f>$K$3</f>
         <v>0.95294117599999995</v>
       </c>
-      <c r="L7" s="37">
+      <c r="L7" s="26">
         <f>$L$3</f>
         <v>-3.7745097999999998E-2</v>
       </c>
-      <c r="M7" s="37">
+      <c r="M7" s="26">
         <f>$M$3</f>
         <v>1.47058824E-2</v>
       </c>
-      <c r="N7" s="37">
+      <c r="N7" s="26">
         <f>$N$3</f>
         <v>-4.9019607800000005E-4</v>
       </c>
-      <c r="O7" s="37">
+      <c r="O7" s="26">
         <f>$O$3</f>
         <v>4.2882352900000003</v>
       </c>
-      <c r="P7" s="33">
+      <c r="P7" s="23">
         <f t="shared" si="14"/>
         <v>9.6411764712499988</v>
       </c>
-      <c r="Q7" s="34">
+      <c r="Q7" s="24">
         <f t="shared" si="18"/>
         <v>850</v>
       </c>
-      <c r="R7" s="19">
+      <c r="R7" s="16">
         <v>850</v>
       </c>
-      <c r="S7" s="19">
+      <c r="S7" s="16">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="T7" s="20">
+      <c r="T7" s="17">
         <f>$T$3</f>
         <v>180</v>
       </c>
-      <c r="U7" s="20">
-        <v>0</v>
-      </c>
-      <c r="V7" s="20">
+      <c r="U7" s="17">
+        <v>0</v>
+      </c>
+      <c r="V7" s="17">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="W7" s="19"/>
-      <c r="X7" s="22">
+      <c r="W7" s="16"/>
+      <c r="X7" s="19">
         <f t="shared" si="17"/>
         <v>16390.000018750001</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A8" s="20">
+      <c r="A8" s="17">
         <f>DataAnalytics!A7</f>
         <v>6</v>
       </c>
-      <c r="B8" s="40">
+      <c r="B8" s="28">
         <f t="shared" si="20"/>
         <v>36</v>
       </c>
-      <c r="C8" s="40">
+      <c r="C8" s="28">
         <f t="shared" si="21"/>
         <v>216</v>
       </c>
-      <c r="D8" s="40">
+      <c r="D8" s="28">
         <f t="shared" si="22"/>
         <v>1296</v>
       </c>
-      <c r="E8" s="36">
+      <c r="E8" s="25">
         <f>$E$3</f>
         <v>1620</v>
       </c>
-      <c r="F8" s="36">
+      <c r="F8" s="25">
         <f>$F$3</f>
         <v>-64.166666000000006</v>
       </c>
-      <c r="G8" s="36">
+      <c r="G8" s="25">
         <f>$G$3</f>
         <v>25</v>
       </c>
-      <c r="H8" s="36">
+      <c r="H8" s="25">
         <f>$H$3</f>
         <v>-0.83333332999999998</v>
       </c>
-      <c r="I8" s="36">
+      <c r="I8" s="25">
         <f>$I$3</f>
         <v>7290</v>
       </c>
-      <c r="J8" s="20">
+      <c r="J8" s="17">
         <f t="shared" si="8"/>
         <v>19020.000028319999</v>
       </c>
-      <c r="K8" s="37">
+      <c r="K8" s="26">
         <f>$K$3</f>
         <v>0.95294117599999995</v>
       </c>
-      <c r="L8" s="37">
+      <c r="L8" s="26">
         <f>$L$3</f>
         <v>-3.7745097999999998E-2</v>
       </c>
-      <c r="M8" s="37">
+      <c r="M8" s="26">
         <f>$M$3</f>
         <v>1.47058824E-2</v>
       </c>
-      <c r="N8" s="37">
+      <c r="N8" s="26">
         <f>$N$3</f>
         <v>-4.9019607800000005E-4</v>
       </c>
-      <c r="O8" s="37">
+      <c r="O8" s="26">
         <f>$O$3</f>
         <v>4.2882352900000003</v>
       </c>
-      <c r="P8" s="33">
+      <c r="P8" s="23">
         <f t="shared" si="14"/>
         <v>11.188235299312002</v>
       </c>
-      <c r="Q8" s="34">
+      <c r="Q8" s="24">
         <f t="shared" si="18"/>
         <v>850</v>
       </c>
-      <c r="R8" s="19">
+      <c r="R8" s="16">
         <v>850</v>
       </c>
-      <c r="S8" s="19">
+      <c r="S8" s="16">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="T8" s="20">
+      <c r="T8" s="17">
         <f>$T$3</f>
         <v>180</v>
       </c>
-      <c r="U8" s="20">
-        <v>0</v>
-      </c>
-      <c r="V8" s="20">
+      <c r="U8" s="17">
+        <v>0</v>
+      </c>
+      <c r="V8" s="17">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="W8" s="19"/>
-      <c r="X8" s="22">
+      <c r="W8" s="16"/>
+      <c r="X8" s="19">
         <f t="shared" si="17"/>
         <v>19020.000028319999</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A9" s="20">
+      <c r="A9" s="17">
         <f>DataAnalytics!A8</f>
         <v>7</v>
       </c>
-      <c r="B9" s="40">
+      <c r="B9" s="28">
         <f t="shared" si="20"/>
         <v>49</v>
       </c>
-      <c r="C9" s="40">
+      <c r="C9" s="28">
         <f t="shared" si="21"/>
         <v>343</v>
       </c>
-      <c r="D9" s="40">
+      <c r="D9" s="28">
         <f t="shared" si="22"/>
         <v>2401</v>
       </c>
-      <c r="E9" s="36">
+      <c r="E9" s="25">
         <f>$E$3</f>
         <v>1620</v>
       </c>
-      <c r="F9" s="36">
+      <c r="F9" s="25">
         <f>$F$3</f>
         <v>-64.166666000000006</v>
       </c>
-      <c r="G9" s="36">
+      <c r="G9" s="25">
         <f>$G$3</f>
         <v>25</v>
       </c>
-      <c r="H9" s="36">
+      <c r="H9" s="25">
         <f>$H$3</f>
         <v>-0.83333332999999998</v>
       </c>
-      <c r="I9" s="36">
+      <c r="I9" s="25">
         <f>$I$3</f>
         <v>7290</v>
       </c>
-      <c r="J9" s="20">
+      <c r="J9" s="17">
         <f t="shared" si="8"/>
         <v>22060.000040669998</v>
       </c>
-      <c r="K9" s="37">
+      <c r="K9" s="26">
         <f>$K$3</f>
         <v>0.95294117599999995</v>
       </c>
-      <c r="L9" s="37">
+      <c r="L9" s="26">
         <f>$L$3</f>
         <v>-3.7745097999999998E-2</v>
       </c>
-      <c r="M9" s="37">
+      <c r="M9" s="26">
         <f>$M$3</f>
         <v>1.47058824E-2</v>
       </c>
-      <c r="N9" s="37">
+      <c r="N9" s="26">
         <f>$N$3</f>
         <v>-4.9019607800000005E-4</v>
       </c>
-      <c r="O9" s="37">
+      <c r="O9" s="26">
         <f>$O$3</f>
         <v>4.2882352900000003</v>
       </c>
-      <c r="P9" s="33">
+      <c r="P9" s="23">
         <f t="shared" si="14"/>
         <v>12.976470599921999</v>
       </c>
-      <c r="Q9" s="34">
+      <c r="Q9" s="24">
         <f t="shared" si="18"/>
         <v>850</v>
       </c>
-      <c r="R9" s="19">
+      <c r="R9" s="16">
         <v>850</v>
       </c>
-      <c r="S9" s="19">
+      <c r="S9" s="16">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="T9" s="20">
+      <c r="T9" s="17">
         <f>$T$3</f>
         <v>180</v>
       </c>
-      <c r="U9" s="20">
-        <v>0</v>
-      </c>
-      <c r="V9" s="20">
+      <c r="U9" s="17">
+        <v>0</v>
+      </c>
+      <c r="V9" s="17">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="W9" s="19"/>
-      <c r="X9" s="22">
+      <c r="W9" s="16"/>
+      <c r="X9" s="19">
         <f t="shared" si="17"/>
         <v>22060.000040669998</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A10" s="20">
+      <c r="A10" s="17">
         <f>DataAnalytics!A9</f>
         <v>8</v>
       </c>
-      <c r="B10" s="40">
+      <c r="B10" s="28">
         <f t="shared" si="20"/>
         <v>64</v>
       </c>
-      <c r="C10" s="40">
+      <c r="C10" s="28">
         <f t="shared" si="21"/>
         <v>512</v>
       </c>
-      <c r="D10" s="40">
+      <c r="D10" s="28">
         <f t="shared" si="22"/>
         <v>4096</v>
       </c>
-      <c r="E10" s="36">
+      <c r="E10" s="25">
         <f t="shared" ref="E10:E11" si="23">$E$3</f>
         <v>1620</v>
       </c>
-      <c r="F10" s="36">
+      <c r="F10" s="25">
         <f t="shared" ref="F10:F11" si="24">$F$3</f>
         <v>-64.166666000000006</v>
       </c>
-      <c r="G10" s="36">
+      <c r="G10" s="25">
         <f t="shared" ref="G10:G11" si="25">$G$3</f>
         <v>25</v>
       </c>
-      <c r="H10" s="36">
+      <c r="H10" s="25">
         <f t="shared" ref="H10:H11" si="26">$H$3</f>
         <v>-0.83333332999999998</v>
       </c>
-      <c r="I10" s="36">
+      <c r="I10" s="25">
         <f t="shared" ref="I10:I11" si="27">$I$3</f>
         <v>7290</v>
       </c>
-      <c r="J10" s="20">
+      <c r="J10" s="17">
         <f t="shared" ref="J10:J12" si="28">A10*E10+B10*F10+C10*G10+D10*H10+I10</f>
         <v>25530.000056319997</v>
       </c>
-      <c r="K10" s="37">
+      <c r="K10" s="26">
         <f t="shared" ref="K10:K11" si="29">$K$3</f>
         <v>0.95294117599999995</v>
       </c>
-      <c r="L10" s="37">
+      <c r="L10" s="26">
         <f t="shared" ref="L10:L11" si="30">$L$3</f>
         <v>-3.7745097999999998E-2</v>
       </c>
-      <c r="M10" s="37">
+      <c r="M10" s="26">
         <f t="shared" ref="M10:M11" si="31">$M$3</f>
         <v>1.47058824E-2</v>
       </c>
-      <c r="N10" s="37">
+      <c r="N10" s="26">
         <f t="shared" ref="N10:N11" si="32">$N$3</f>
         <v>-4.9019607800000005E-4</v>
       </c>
-      <c r="O10" s="37">
+      <c r="O10" s="26">
         <f t="shared" ref="O10:O11" si="33">$O$3</f>
         <v>4.2882352900000003</v>
       </c>
-      <c r="P10" s="33">
+      <c r="P10" s="23">
         <f t="shared" ref="P10:P12" si="34">A10*K10+B10*L10+C10*M10+D10*N10+O10</f>
         <v>15.017647079311999</v>
       </c>
-      <c r="Q10" s="34">
+      <c r="Q10" s="24">
         <f>$Q$3</f>
         <v>850</v>
       </c>
-      <c r="R10" s="19">
+      <c r="R10" s="16">
         <v>850</v>
       </c>
-      <c r="S10" s="19">
+      <c r="S10" s="16">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="T10" s="20">
+      <c r="T10" s="17">
         <f>$T$3</f>
         <v>180</v>
       </c>
-      <c r="U10" s="20">
-        <v>0</v>
-      </c>
-      <c r="V10" s="20">
+      <c r="U10" s="17">
+        <v>0</v>
+      </c>
+      <c r="V10" s="17">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="W10" s="19"/>
-      <c r="X10" s="22">
+      <c r="W10" s="16"/>
+      <c r="X10" s="19">
         <f t="shared" ref="X10:X12" si="35">J10+S10+V10</f>
         <v>25530.000056319997</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A11" s="20">
+      <c r="A11" s="17">
         <f>DataAnalytics!A10</f>
         <v>9</v>
       </c>
-      <c r="B11" s="40">
+      <c r="B11" s="28">
         <f t="shared" si="20"/>
         <v>81</v>
       </c>
-      <c r="C11" s="40">
+      <c r="C11" s="28">
         <f t="shared" si="21"/>
         <v>729</v>
       </c>
-      <c r="D11" s="40">
+      <c r="D11" s="28">
         <f t="shared" si="22"/>
         <v>6561</v>
       </c>
-      <c r="E11" s="36">
+      <c r="E11" s="25">
         <f t="shared" si="23"/>
         <v>1620</v>
       </c>
-      <c r="F11" s="36">
+      <c r="F11" s="25">
         <f t="shared" si="24"/>
         <v>-64.166666000000006</v>
       </c>
-      <c r="G11" s="36">
+      <c r="G11" s="25">
         <f t="shared" si="25"/>
         <v>25</v>
       </c>
-      <c r="H11" s="36">
+      <c r="H11" s="25">
         <f t="shared" si="26"/>
         <v>-0.83333332999999998</v>
       </c>
-      <c r="I11" s="36">
+      <c r="I11" s="25">
         <f t="shared" si="27"/>
         <v>7290</v>
       </c>
-      <c r="J11" s="20">
+      <c r="J11" s="17">
         <f t="shared" si="28"/>
         <v>29430.000075870001</v>
       </c>
-      <c r="K11" s="37">
+      <c r="K11" s="26">
         <f t="shared" si="29"/>
         <v>0.95294117599999995</v>
       </c>
-      <c r="L11" s="37">
+      <c r="L11" s="26">
         <f t="shared" si="30"/>
         <v>-3.7745097999999998E-2</v>
       </c>
-      <c r="M11" s="37">
+      <c r="M11" s="26">
         <f t="shared" si="31"/>
         <v>1.47058824E-2</v>
       </c>
-      <c r="N11" s="37">
+      <c r="N11" s="26">
         <f t="shared" si="32"/>
         <v>-4.9019607800000005E-4</v>
       </c>
-      <c r="O11" s="37">
+      <c r="O11" s="26">
         <f t="shared" si="33"/>
         <v>4.2882352900000003</v>
       </c>
-      <c r="P11" s="33">
+      <c r="P11" s="23">
         <f t="shared" si="34"/>
         <v>17.311764737841997</v>
       </c>
-      <c r="Q11" s="34">
+      <c r="Q11" s="24">
         <f t="shared" si="18"/>
         <v>850</v>
       </c>
-      <c r="R11" s="19">
+      <c r="R11" s="16">
         <v>850</v>
       </c>
-      <c r="S11" s="19">
+      <c r="S11" s="16">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="T11" s="20">
-        <f t="shared" ref="T11:T12" si="36">$T$3</f>
+      <c r="T11" s="17">
+        <f t="shared" ref="T11" si="36">$T$3</f>
         <v>180</v>
       </c>
-      <c r="U11" s="20">
-        <v>0</v>
-      </c>
-      <c r="V11" s="20">
+      <c r="U11" s="17">
+        <v>0</v>
+      </c>
+      <c r="V11" s="17">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="W11" s="19"/>
-      <c r="X11" s="22">
+      <c r="W11" s="16"/>
+      <c r="X11" s="19">
         <f t="shared" si="35"/>
         <v>29430.000075870001</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A12" s="20">
+      <c r="A12" s="17">
         <f>DataAnalytics!A11</f>
         <v>10</v>
       </c>
-      <c r="B12" s="40">
+      <c r="B12" s="28">
         <f t="shared" si="20"/>
         <v>100</v>
       </c>
-      <c r="C12" s="40">
+      <c r="C12" s="28">
         <f t="shared" si="21"/>
         <v>1000</v>
       </c>
-      <c r="D12" s="40">
+      <c r="D12" s="28">
         <f t="shared" si="22"/>
         <v>10000</v>
       </c>
-      <c r="E12" s="36">
+      <c r="E12" s="25">
         <f>$E$3</f>
         <v>1620</v>
       </c>
-      <c r="F12" s="36">
+      <c r="F12" s="25">
         <f>$F$3</f>
         <v>-64.166666000000006</v>
       </c>
-      <c r="G12" s="36">
+      <c r="G12" s="25">
         <f>$G$3</f>
         <v>25</v>
       </c>
-      <c r="H12" s="36">
+      <c r="H12" s="25">
         <f>$H$3</f>
         <v>-0.83333332999999998</v>
       </c>
-      <c r="I12" s="36">
+      <c r="I12" s="25">
         <f>$I$3</f>
         <v>7290</v>
       </c>
-      <c r="J12" s="20">
+      <c r="J12" s="17">
         <f t="shared" si="28"/>
         <v>33740.000100000005</v>
       </c>
-      <c r="K12" s="37">
+      <c r="K12" s="26">
         <f>$K$3</f>
         <v>0.95294117599999995</v>
       </c>
-      <c r="L12" s="37">
+      <c r="L12" s="26">
         <f>$L$3</f>
         <v>-3.7745097999999998E-2</v>
       </c>
-      <c r="M12" s="37">
+      <c r="M12" s="26">
         <f>$M$3</f>
         <v>1.47058824E-2</v>
       </c>
-      <c r="N12" s="37">
+      <c r="N12" s="26">
         <f>$N$3</f>
         <v>-4.9019607800000005E-4</v>
       </c>
-      <c r="O12" s="37">
+      <c r="O12" s="26">
         <f>$O$3</f>
         <v>4.2882352900000003</v>
       </c>
-      <c r="P12" s="33">
+      <c r="P12" s="23">
         <f t="shared" si="34"/>
         <v>19.847058869999998</v>
       </c>
-      <c r="Q12" s="34">
+      <c r="Q12" s="24">
         <f t="shared" si="18"/>
         <v>850</v>
       </c>
-      <c r="R12" s="19">
+      <c r="R12" s="16">
         <v>850</v>
       </c>
-      <c r="S12" s="19">
+      <c r="S12" s="16">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="T12" s="20">
+      <c r="T12" s="17">
         <f>$T$3</f>
         <v>180</v>
       </c>
-      <c r="U12" s="20">
-        <v>0</v>
-      </c>
-      <c r="V12" s="20">
+      <c r="U12" s="17">
+        <v>0</v>
+      </c>
+      <c r="V12" s="17">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="W12" s="19"/>
-      <c r="X12" s="22">
+      <c r="W12" s="16"/>
+      <c r="X12" s="19">
         <f t="shared" si="35"/>
         <v>33740.000100000005</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="K1:O1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="J1:J2"/>
     <mergeCell ref="X1:X2"/>
     <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="R1:R2"/>
@@ -20696,12 +20766,6 @@
     <mergeCell ref="T1:T2"/>
     <mergeCell ref="U1:U2"/>
     <mergeCell ref="V1:V2"/>
-    <mergeCell ref="E1:I1"/>
-    <mergeCell ref="K1:O1"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="P1:P2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Analytical test task/Data base.xlsx
+++ b/Analytical test task/Data base.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="384" windowWidth="19200" windowHeight="10200" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="384" windowWidth="19200" windowHeight="10200" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="List2" sheetId="2" r:id="rId1"/>
-    <sheet name="Зав-ть Оклада от разряда" sheetId="9" r:id="rId2"/>
-    <sheet name="Зав-ть коэффициента от разряда" sheetId="5" r:id="rId3"/>
-    <sheet name="Расчёт дохода от разряда" sheetId="8" r:id="rId4"/>
+    <sheet name="Зав-ть Оклада от Разряда" sheetId="9" r:id="rId2"/>
+    <sheet name="Зав-ть Коэффициента от Разряда" sheetId="5" r:id="rId3"/>
+    <sheet name="Расчёт Дохода от Разряда" sheetId="8" r:id="rId4"/>
     <sheet name="DataAnalytics" sheetId="10" r:id="rId5"/>
   </sheets>
   <definedNames>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="58">
   <si>
     <t>Нагревальщик металла</t>
   </si>
@@ -211,9 +211,6 @@
   </si>
   <si>
     <t xml:space="preserve">MSE по тестовой выборке составляет 3.308722450212111e-24. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ссылка на файл с исходным кодом расчётов: </t>
   </si>
   <si>
     <t>Таким образом выделены веса Линейной регрессии и иные константные величины</t>
@@ -505,14 +502,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -525,6 +514,17 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="20" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -535,15 +535,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -558,8 +549,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="20" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="21">
@@ -799,13 +796,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>967740</xdr:colOff>
+      <xdr:colOff>967741</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>61659</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>548641</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>125132</xdr:rowOff>
     </xdr:to>
@@ -816,16 +813,57 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill>
+      <xdr:blipFill rotWithShape="1">
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:srcRect r="1271"/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3665220" y="2659380"/>
-          <a:ext cx="9647619" cy="4780952"/>
+          <a:off x="3665221" y="2659380"/>
+          <a:ext cx="9525000" cy="4780952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>90854</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect r="978"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3848100" y="2720340"/>
+          <a:ext cx="9326880" cy="4685714"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1173,7 +1211,7 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="I1" s="35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J1" s="35"/>
       <c r="K1" s="35"/>
@@ -1261,7 +1299,7 @@
         <v>26020</v>
       </c>
       <c r="J3" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$12</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$12</f>
         <v>1000</v>
       </c>
       <c r="K3" s="13">
@@ -1319,7 +1357,7 @@
         <v>22980</v>
       </c>
       <c r="J4" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$11</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$11</f>
         <v>729</v>
       </c>
       <c r="K4" s="13">
@@ -1377,7 +1415,7 @@
         <v>20350</v>
       </c>
       <c r="J5" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$10</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$10</f>
         <v>512</v>
       </c>
       <c r="K5" s="13">
@@ -1435,7 +1473,7 @@
         <v>20350</v>
       </c>
       <c r="J6" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$10</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$10</f>
         <v>512</v>
       </c>
       <c r="K6" s="7">
@@ -1493,7 +1531,7 @@
         <v>18090</v>
       </c>
       <c r="J7" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$9</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$9</f>
         <v>343</v>
       </c>
       <c r="K7" s="13">
@@ -1551,7 +1589,7 @@
         <v>18090</v>
       </c>
       <c r="J8" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$9</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$9</f>
         <v>343</v>
       </c>
       <c r="K8" s="13">
@@ -1609,7 +1647,7 @@
         <v>16110</v>
       </c>
       <c r="J9" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$9</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$9</f>
         <v>343</v>
       </c>
       <c r="K9" s="13">
@@ -1667,7 +1705,7 @@
         <v>25300</v>
       </c>
       <c r="J10" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$12</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$12</f>
         <v>1000</v>
       </c>
       <c r="K10" s="13">
@@ -1725,7 +1763,7 @@
         <v>22260</v>
       </c>
       <c r="J11" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$11</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$11</f>
         <v>729</v>
       </c>
       <c r="K11" s="13">
@@ -1783,7 +1821,7 @@
         <v>17370</v>
       </c>
       <c r="J12" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$9</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$9</f>
         <v>343</v>
       </c>
       <c r="K12" s="13">
@@ -1841,7 +1879,7 @@
         <v>25300</v>
       </c>
       <c r="J13" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$12</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$12</f>
         <v>1000</v>
       </c>
       <c r="K13" s="7">
@@ -1899,7 +1937,7 @@
         <v>22260</v>
       </c>
       <c r="J14" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$11</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$11</f>
         <v>729</v>
       </c>
       <c r="K14" s="7">
@@ -1957,7 +1995,7 @@
         <v>17370</v>
       </c>
       <c r="J15" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$9</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$9</f>
         <v>343</v>
       </c>
       <c r="K15" s="7">
@@ -2015,7 +2053,7 @@
         <v>15420</v>
       </c>
       <c r="J16" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$8</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$8</f>
         <v>216</v>
       </c>
       <c r="K16" s="13">
@@ -2073,7 +2111,7 @@
         <v>17010</v>
       </c>
       <c r="J17" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$9</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$9</f>
         <v>343</v>
       </c>
       <c r="K17" s="13">
@@ -2131,7 +2169,7 @@
         <v>15420</v>
       </c>
       <c r="J18" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$8</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$8</f>
         <v>216</v>
       </c>
       <c r="K18" s="13">
@@ -2189,7 +2227,7 @@
         <v>19630</v>
       </c>
       <c r="J19" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$10</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$10</f>
         <v>512</v>
       </c>
       <c r="K19" s="13">
@@ -2247,7 +2285,7 @@
         <v>17830</v>
       </c>
       <c r="J20" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$10</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$10</f>
         <v>512</v>
       </c>
       <c r="K20" s="13">
@@ -2305,7 +2343,7 @@
         <v>17830</v>
       </c>
       <c r="J21" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$10</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$10</f>
         <v>512</v>
       </c>
       <c r="K21" s="7">
@@ -2363,7 +2401,7 @@
         <v>15570</v>
       </c>
       <c r="J22" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$9</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$9</f>
         <v>343</v>
       </c>
       <c r="K22" s="13">
@@ -2421,7 +2459,7 @@
         <v>26020</v>
       </c>
       <c r="J23" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$12</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$12</f>
         <v>1000</v>
       </c>
       <c r="K23" s="7">
@@ -2479,7 +2517,7 @@
         <v>22980</v>
       </c>
       <c r="J24" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$11</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$11</f>
         <v>729</v>
       </c>
       <c r="K24" s="7">
@@ -2537,7 +2575,7 @@
         <v>20350</v>
       </c>
       <c r="J25" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$10</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$10</f>
         <v>512</v>
       </c>
       <c r="K25" s="7">
@@ -2595,7 +2633,7 @@
         <v>20350</v>
       </c>
       <c r="J26" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$10</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$10</f>
         <v>512</v>
       </c>
       <c r="K26" s="7">
@@ -2653,7 +2691,7 @@
         <v>18090</v>
       </c>
       <c r="J27" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$9</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$9</f>
         <v>343</v>
       </c>
       <c r="K27" s="7">
@@ -2711,7 +2749,7 @@
         <v>18090</v>
       </c>
       <c r="J28" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$9</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$9</f>
         <v>343</v>
       </c>
       <c r="K28" s="7">
@@ -2769,7 +2807,7 @@
         <v>16110</v>
       </c>
       <c r="J29" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$9</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$9</f>
         <v>343</v>
       </c>
       <c r="K29" s="7">
@@ -2827,7 +2865,7 @@
         <v>25300</v>
       </c>
       <c r="J30" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$12</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$12</f>
         <v>1000</v>
       </c>
       <c r="K30" s="7">
@@ -2885,7 +2923,7 @@
         <v>22260</v>
       </c>
       <c r="J31" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$11</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$11</f>
         <v>729</v>
       </c>
       <c r="K31" s="7">
@@ -2943,7 +2981,7 @@
         <v>17370</v>
       </c>
       <c r="J32" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$9</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$9</f>
         <v>343</v>
       </c>
       <c r="K32" s="7">
@@ -3001,7 +3039,7 @@
         <v>25300</v>
       </c>
       <c r="J33" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$12</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$12</f>
         <v>1000</v>
       </c>
       <c r="K33" s="7">
@@ -3059,7 +3097,7 @@
         <v>22260</v>
       </c>
       <c r="J34" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$11</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$11</f>
         <v>729</v>
       </c>
       <c r="K34" s="7">
@@ -3117,7 +3155,7 @@
         <v>17370</v>
       </c>
       <c r="J35" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$9</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$9</f>
         <v>343</v>
       </c>
       <c r="K35" s="7">
@@ -3175,7 +3213,7 @@
         <v>15420</v>
       </c>
       <c r="J36" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$8</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$8</f>
         <v>216</v>
       </c>
       <c r="K36" s="7">
@@ -3233,7 +3271,7 @@
         <v>17010</v>
       </c>
       <c r="J37" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$9</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$9</f>
         <v>343</v>
       </c>
       <c r="K37" s="7">
@@ -3291,7 +3329,7 @@
         <v>15420</v>
       </c>
       <c r="J38" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$8</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$8</f>
         <v>216</v>
       </c>
       <c r="K38" s="7">
@@ -3349,7 +3387,7 @@
         <v>19630</v>
       </c>
       <c r="J39" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$10</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$10</f>
         <v>512</v>
       </c>
       <c r="K39" s="7">
@@ -3407,7 +3445,7 @@
         <v>17830</v>
       </c>
       <c r="J40" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$10</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$10</f>
         <v>512</v>
       </c>
       <c r="K40" s="7">
@@ -3465,7 +3503,7 @@
         <v>17830</v>
       </c>
       <c r="J41" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$10</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$10</f>
         <v>512</v>
       </c>
       <c r="K41" s="7">
@@ -3523,7 +3561,7 @@
         <v>15570</v>
       </c>
       <c r="J42" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$9</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$9</f>
         <v>343</v>
       </c>
       <c r="K42" s="7">
@@ -3581,7 +3619,7 @@
         <v>26020</v>
       </c>
       <c r="J43" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$12</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$12</f>
         <v>1000</v>
       </c>
       <c r="K43" s="7">
@@ -3639,7 +3677,7 @@
         <v>22980</v>
       </c>
       <c r="J44" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$11</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$11</f>
         <v>729</v>
       </c>
       <c r="K44" s="7">
@@ -3697,7 +3735,7 @@
         <v>20350</v>
       </c>
       <c r="J45" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$10</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$10</f>
         <v>512</v>
       </c>
       <c r="K45" s="7">
@@ -3755,7 +3793,7 @@
         <v>20350</v>
       </c>
       <c r="J46" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$10</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$10</f>
         <v>512</v>
       </c>
       <c r="K46" s="7">
@@ -3813,7 +3851,7 @@
         <v>18090</v>
       </c>
       <c r="J47" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$9</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$9</f>
         <v>343</v>
       </c>
       <c r="K47" s="7">
@@ -3871,7 +3909,7 @@
         <v>18090</v>
       </c>
       <c r="J48" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$9</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$9</f>
         <v>343</v>
       </c>
       <c r="K48" s="7">
@@ -3929,7 +3967,7 @@
         <v>16110</v>
       </c>
       <c r="J49" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$9</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$9</f>
         <v>343</v>
       </c>
       <c r="K49" s="7">
@@ -3987,7 +4025,7 @@
         <v>25300</v>
       </c>
       <c r="J50" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$12</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$12</f>
         <v>1000</v>
       </c>
       <c r="K50" s="7">
@@ -4045,7 +4083,7 @@
         <v>22260</v>
       </c>
       <c r="J51" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$11</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$11</f>
         <v>729</v>
       </c>
       <c r="K51" s="7">
@@ -4103,7 +4141,7 @@
         <v>17370</v>
       </c>
       <c r="J52" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$9</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$9</f>
         <v>343</v>
       </c>
       <c r="K52" s="7">
@@ -4161,7 +4199,7 @@
         <v>25300</v>
       </c>
       <c r="J53" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$12</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$12</f>
         <v>1000</v>
       </c>
       <c r="K53" s="7">
@@ -4219,7 +4257,7 @@
         <v>22260</v>
       </c>
       <c r="J54" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$11</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$11</f>
         <v>729</v>
       </c>
       <c r="K54" s="7">
@@ -4277,7 +4315,7 @@
         <v>17370</v>
       </c>
       <c r="J55" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$9</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$9</f>
         <v>343</v>
       </c>
       <c r="K55" s="7">
@@ -4335,7 +4373,7 @@
         <v>15420</v>
       </c>
       <c r="J56" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$8</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$8</f>
         <v>216</v>
       </c>
       <c r="K56" s="7">
@@ -4393,7 +4431,7 @@
         <v>17010</v>
       </c>
       <c r="J57" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$9</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$9</f>
         <v>343</v>
       </c>
       <c r="K57" s="7">
@@ -4451,7 +4489,7 @@
         <v>15420</v>
       </c>
       <c r="J58" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$8</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$8</f>
         <v>216</v>
       </c>
       <c r="K58" s="7">
@@ -4509,7 +4547,7 @@
         <v>19630</v>
       </c>
       <c r="J59" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$10</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$10</f>
         <v>512</v>
       </c>
       <c r="K59" s="7">
@@ -4567,7 +4605,7 @@
         <v>17830</v>
       </c>
       <c r="J60" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$10</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$10</f>
         <v>512</v>
       </c>
       <c r="K60" s="7">
@@ -4625,7 +4663,7 @@
         <v>17830</v>
       </c>
       <c r="J61" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$10</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$10</f>
         <v>512</v>
       </c>
       <c r="K61" s="7">
@@ -4683,7 +4721,7 @@
         <v>15570</v>
       </c>
       <c r="J62" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$9</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$9</f>
         <v>343</v>
       </c>
       <c r="K62" s="7">
@@ -4741,7 +4779,7 @@
         <v>26020</v>
       </c>
       <c r="J63" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$12</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$12</f>
         <v>1000</v>
       </c>
       <c r="K63" s="7">
@@ -4799,7 +4837,7 @@
         <v>22980</v>
       </c>
       <c r="J64" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$11</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$11</f>
         <v>729</v>
       </c>
       <c r="K64" s="7">
@@ -4857,7 +4895,7 @@
         <v>20350</v>
       </c>
       <c r="J65" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$10</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$10</f>
         <v>512</v>
       </c>
       <c r="K65" s="7">
@@ -4915,7 +4953,7 @@
         <v>20350</v>
       </c>
       <c r="J66" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$10</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$10</f>
         <v>512</v>
       </c>
       <c r="K66" s="7">
@@ -4973,7 +5011,7 @@
         <v>18090</v>
       </c>
       <c r="J67" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$9</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$9</f>
         <v>343</v>
       </c>
       <c r="K67" s="7">
@@ -5031,7 +5069,7 @@
         <v>18090</v>
       </c>
       <c r="J68" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$9</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$9</f>
         <v>343</v>
       </c>
       <c r="K68" s="7">
@@ -5089,7 +5127,7 @@
         <v>16110</v>
       </c>
       <c r="J69" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$9</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$9</f>
         <v>343</v>
       </c>
       <c r="K69" s="7">
@@ -5147,7 +5185,7 @@
         <v>25300</v>
       </c>
       <c r="J70" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$12</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$12</f>
         <v>1000</v>
       </c>
       <c r="K70" s="7">
@@ -5205,7 +5243,7 @@
         <v>22260</v>
       </c>
       <c r="J71" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$11</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$11</f>
         <v>729</v>
       </c>
       <c r="K71" s="7">
@@ -5263,7 +5301,7 @@
         <v>17370</v>
       </c>
       <c r="J72" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$9</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$9</f>
         <v>343</v>
       </c>
       <c r="K72" s="7">
@@ -5321,7 +5359,7 @@
         <v>25300</v>
       </c>
       <c r="J73" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$12</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$12</f>
         <v>1000</v>
       </c>
       <c r="K73" s="7">
@@ -5379,7 +5417,7 @@
         <v>22260</v>
       </c>
       <c r="J74" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$11</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$11</f>
         <v>729</v>
       </c>
       <c r="K74" s="7">
@@ -5437,7 +5475,7 @@
         <v>17370</v>
       </c>
       <c r="J75" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$9</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$9</f>
         <v>343</v>
       </c>
       <c r="K75" s="7">
@@ -5495,7 +5533,7 @@
         <v>15420</v>
       </c>
       <c r="J76" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$8</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$8</f>
         <v>216</v>
       </c>
       <c r="K76" s="7">
@@ -5553,7 +5591,7 @@
         <v>17010</v>
       </c>
       <c r="J77" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$9</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$9</f>
         <v>343</v>
       </c>
       <c r="K77" s="7">
@@ -5611,7 +5649,7 @@
         <v>15420</v>
       </c>
       <c r="J78" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$8</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$8</f>
         <v>216</v>
       </c>
       <c r="K78" s="7">
@@ -5669,7 +5707,7 @@
         <v>19630</v>
       </c>
       <c r="J79" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$10</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$10</f>
         <v>512</v>
       </c>
       <c r="K79" s="7">
@@ -5727,7 +5765,7 @@
         <v>17830</v>
       </c>
       <c r="J80" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$10</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$10</f>
         <v>512</v>
       </c>
       <c r="K80" s="7">
@@ -5785,7 +5823,7 @@
         <v>17830</v>
       </c>
       <c r="J81" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$10</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$10</f>
         <v>512</v>
       </c>
       <c r="K81" s="7">
@@ -5843,7 +5881,7 @@
         <v>15570</v>
       </c>
       <c r="J82" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$9</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$9</f>
         <v>343</v>
       </c>
       <c r="K82" s="7">
@@ -5901,7 +5939,7 @@
         <v>26020</v>
       </c>
       <c r="J83" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$12</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$12</f>
         <v>1000</v>
       </c>
       <c r="K83" s="7">
@@ -5959,7 +5997,7 @@
         <v>22980</v>
       </c>
       <c r="J84" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$11</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$11</f>
         <v>729</v>
       </c>
       <c r="K84" s="7">
@@ -6017,7 +6055,7 @@
         <v>20350</v>
       </c>
       <c r="J85" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$10</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$10</f>
         <v>512</v>
       </c>
       <c r="K85" s="7">
@@ -6075,7 +6113,7 @@
         <v>20350</v>
       </c>
       <c r="J86" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$10</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$10</f>
         <v>512</v>
       </c>
       <c r="K86" s="7">
@@ -6133,7 +6171,7 @@
         <v>18090</v>
       </c>
       <c r="J87" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$9</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$9</f>
         <v>343</v>
       </c>
       <c r="K87" s="7">
@@ -6191,7 +6229,7 @@
         <v>18090</v>
       </c>
       <c r="J88" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$9</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$9</f>
         <v>343</v>
       </c>
       <c r="K88" s="7">
@@ -6249,7 +6287,7 @@
         <v>16110</v>
       </c>
       <c r="J89" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$9</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$9</f>
         <v>343</v>
       </c>
       <c r="K89" s="7">
@@ -6307,7 +6345,7 @@
         <v>25300</v>
       </c>
       <c r="J90" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$12</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$12</f>
         <v>1000</v>
       </c>
       <c r="K90" s="7">
@@ -6365,7 +6403,7 @@
         <v>22260</v>
       </c>
       <c r="J91" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$11</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$11</f>
         <v>729</v>
       </c>
       <c r="K91" s="7">
@@ -6423,7 +6461,7 @@
         <v>17370</v>
       </c>
       <c r="J92" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$9</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$9</f>
         <v>343</v>
       </c>
       <c r="K92" s="7">
@@ -6481,7 +6519,7 @@
         <v>25300</v>
       </c>
       <c r="J93" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$12</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$12</f>
         <v>1000</v>
       </c>
       <c r="K93" s="7">
@@ -6539,7 +6577,7 @@
         <v>22260</v>
       </c>
       <c r="J94" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$11</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$11</f>
         <v>729</v>
       </c>
       <c r="K94" s="7">
@@ -6597,7 +6635,7 @@
         <v>17370</v>
       </c>
       <c r="J95" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$9</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$9</f>
         <v>343</v>
       </c>
       <c r="K95" s="7">
@@ -6655,7 +6693,7 @@
         <v>15420</v>
       </c>
       <c r="J96" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$8</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$8</f>
         <v>216</v>
       </c>
       <c r="K96" s="7">
@@ -6713,7 +6751,7 @@
         <v>17010</v>
       </c>
       <c r="J97" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$9</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$9</f>
         <v>343</v>
       </c>
       <c r="K97" s="7">
@@ -6771,7 +6809,7 @@
         <v>15420</v>
       </c>
       <c r="J98" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$8</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$8</f>
         <v>216</v>
       </c>
       <c r="K98" s="7">
@@ -6829,7 +6867,7 @@
         <v>19630</v>
       </c>
       <c r="J99" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$10</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$10</f>
         <v>512</v>
       </c>
       <c r="K99" s="7">
@@ -6887,7 +6925,7 @@
         <v>17830</v>
       </c>
       <c r="J100" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$10</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$10</f>
         <v>512</v>
       </c>
       <c r="K100" s="7">
@@ -6945,7 +6983,7 @@
         <v>17830</v>
       </c>
       <c r="J101" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$10</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$10</f>
         <v>512</v>
       </c>
       <c r="K101" s="7">
@@ -7003,7 +7041,7 @@
         <v>15570</v>
       </c>
       <c r="J102" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$9</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$9</f>
         <v>343</v>
       </c>
       <c r="K102" s="7">
@@ -7061,7 +7099,7 @@
         <v>26020</v>
       </c>
       <c r="J103" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$12</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$12</f>
         <v>1000</v>
       </c>
       <c r="K103" s="7">
@@ -7119,7 +7157,7 @@
         <v>22980</v>
       </c>
       <c r="J104" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$11</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$11</f>
         <v>729</v>
       </c>
       <c r="K104" s="7">
@@ -7177,7 +7215,7 @@
         <v>20350</v>
       </c>
       <c r="J105" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$10</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$10</f>
         <v>512</v>
       </c>
       <c r="K105" s="7">
@@ -7235,7 +7273,7 @@
         <v>20350</v>
       </c>
       <c r="J106" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$10</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$10</f>
         <v>512</v>
       </c>
       <c r="K106" s="7">
@@ -7293,7 +7331,7 @@
         <v>18090</v>
       </c>
       <c r="J107" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$9</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$9</f>
         <v>343</v>
       </c>
       <c r="K107" s="7">
@@ -7351,7 +7389,7 @@
         <v>18090</v>
       </c>
       <c r="J108" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$9</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$9</f>
         <v>343</v>
       </c>
       <c r="K108" s="7">
@@ -7409,7 +7447,7 @@
         <v>16110</v>
       </c>
       <c r="J109" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$9</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$9</f>
         <v>343</v>
       </c>
       <c r="K109" s="7">
@@ -7467,7 +7505,7 @@
         <v>25300</v>
       </c>
       <c r="J110" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$12</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$12</f>
         <v>1000</v>
       </c>
       <c r="K110" s="7">
@@ -7525,7 +7563,7 @@
         <v>22260</v>
       </c>
       <c r="J111" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$11</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$11</f>
         <v>729</v>
       </c>
       <c r="K111" s="7">
@@ -7583,7 +7621,7 @@
         <v>17370</v>
       </c>
       <c r="J112" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$9</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$9</f>
         <v>343</v>
       </c>
       <c r="K112" s="7">
@@ -7641,7 +7679,7 @@
         <v>25300</v>
       </c>
       <c r="J113" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$12</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$12</f>
         <v>1000</v>
       </c>
       <c r="K113" s="7">
@@ -7699,7 +7737,7 @@
         <v>22260</v>
       </c>
       <c r="J114" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$11</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$11</f>
         <v>729</v>
       </c>
       <c r="K114" s="7">
@@ -7757,7 +7795,7 @@
         <v>17370</v>
       </c>
       <c r="J115" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$9</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$9</f>
         <v>343</v>
       </c>
       <c r="K115" s="7">
@@ -7815,7 +7853,7 @@
         <v>15420</v>
       </c>
       <c r="J116" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$8</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$8</f>
         <v>216</v>
       </c>
       <c r="K116" s="7">
@@ -7873,7 +7911,7 @@
         <v>17010</v>
       </c>
       <c r="J117" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$9</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$9</f>
         <v>343</v>
       </c>
       <c r="K117" s="7">
@@ -7931,7 +7969,7 @@
         <v>15420</v>
       </c>
       <c r="J118" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$8</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$8</f>
         <v>216</v>
       </c>
       <c r="K118" s="7">
@@ -7989,7 +8027,7 @@
         <v>19630</v>
       </c>
       <c r="J119" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$10</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$10</f>
         <v>512</v>
       </c>
       <c r="K119" s="7">
@@ -8047,7 +8085,7 @@
         <v>17830</v>
       </c>
       <c r="J120" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$10</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$10</f>
         <v>512</v>
       </c>
       <c r="K120" s="7">
@@ -8105,7 +8143,7 @@
         <v>17830</v>
       </c>
       <c r="J121" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$10</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$10</f>
         <v>512</v>
       </c>
       <c r="K121" s="7">
@@ -8163,7 +8201,7 @@
         <v>15570</v>
       </c>
       <c r="J122" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$9</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$9</f>
         <v>343</v>
       </c>
       <c r="K122" s="7">
@@ -8221,7 +8259,7 @@
         <v>26020</v>
       </c>
       <c r="J123" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$12</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$12</f>
         <v>1000</v>
       </c>
       <c r="K123" s="7">
@@ -8279,7 +8317,7 @@
         <v>22980</v>
       </c>
       <c r="J124" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$11</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$11</f>
         <v>729</v>
       </c>
       <c r="K124" s="7">
@@ -8337,7 +8375,7 @@
         <v>20350</v>
       </c>
       <c r="J125" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$10</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$10</f>
         <v>512</v>
       </c>
       <c r="K125" s="7">
@@ -8395,7 +8433,7 @@
         <v>20350</v>
       </c>
       <c r="J126" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$10</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$10</f>
         <v>512</v>
       </c>
       <c r="K126" s="7">
@@ -8453,7 +8491,7 @@
         <v>18090</v>
       </c>
       <c r="J127" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$9</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$9</f>
         <v>343</v>
       </c>
       <c r="K127" s="7">
@@ -8511,7 +8549,7 @@
         <v>18090</v>
       </c>
       <c r="J128" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$9</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$9</f>
         <v>343</v>
       </c>
       <c r="K128" s="7">
@@ -8569,7 +8607,7 @@
         <v>16110</v>
       </c>
       <c r="J129" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$9</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$9</f>
         <v>343</v>
       </c>
       <c r="K129" s="7">
@@ -8627,7 +8665,7 @@
         <v>25300</v>
       </c>
       <c r="J130" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$12</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$12</f>
         <v>1000</v>
       </c>
       <c r="K130" s="7">
@@ -8685,7 +8723,7 @@
         <v>22260</v>
       </c>
       <c r="J131" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$11</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$11</f>
         <v>729</v>
       </c>
       <c r="K131" s="7">
@@ -8743,7 +8781,7 @@
         <v>17370</v>
       </c>
       <c r="J132" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$9</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$9</f>
         <v>343</v>
       </c>
       <c r="K132" s="7">
@@ -8801,7 +8839,7 @@
         <v>25300</v>
       </c>
       <c r="J133" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$12</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$12</f>
         <v>1000</v>
       </c>
       <c r="K133" s="7">
@@ -8859,7 +8897,7 @@
         <v>22260</v>
       </c>
       <c r="J134" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$11</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$11</f>
         <v>729</v>
       </c>
       <c r="K134" s="7">
@@ -8917,7 +8955,7 @@
         <v>17370</v>
       </c>
       <c r="J135" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$9</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$9</f>
         <v>343</v>
       </c>
       <c r="K135" s="7">
@@ -8975,7 +9013,7 @@
         <v>15420</v>
       </c>
       <c r="J136" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$8</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$8</f>
         <v>216</v>
       </c>
       <c r="K136" s="7">
@@ -9033,7 +9071,7 @@
         <v>17010</v>
       </c>
       <c r="J137" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$9</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$9</f>
         <v>343</v>
       </c>
       <c r="K137" s="7">
@@ -9091,7 +9129,7 @@
         <v>15420</v>
       </c>
       <c r="J138" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$8</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$8</f>
         <v>216</v>
       </c>
       <c r="K138" s="7">
@@ -9149,7 +9187,7 @@
         <v>19630</v>
       </c>
       <c r="J139" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$10</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$10</f>
         <v>512</v>
       </c>
       <c r="K139" s="7">
@@ -9207,7 +9245,7 @@
         <v>17830</v>
       </c>
       <c r="J140" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$10</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$10</f>
         <v>512</v>
       </c>
       <c r="K140" s="7">
@@ -9265,7 +9303,7 @@
         <v>17830</v>
       </c>
       <c r="J141" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$10</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$10</f>
         <v>512</v>
       </c>
       <c r="K141" s="7">
@@ -9323,7 +9361,7 @@
         <v>15570</v>
       </c>
       <c r="J142" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$9</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$9</f>
         <v>343</v>
       </c>
       <c r="K142" s="7">
@@ -9381,7 +9419,7 @@
         <v>26020</v>
       </c>
       <c r="J143" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$12</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$12</f>
         <v>1000</v>
       </c>
       <c r="K143" s="7">
@@ -9439,7 +9477,7 @@
         <v>22980</v>
       </c>
       <c r="J144" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$11</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$11</f>
         <v>729</v>
       </c>
       <c r="K144" s="7">
@@ -9497,7 +9535,7 @@
         <v>20350</v>
       </c>
       <c r="J145" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$10</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$10</f>
         <v>512</v>
       </c>
       <c r="K145" s="7">
@@ -9555,7 +9593,7 @@
         <v>20350</v>
       </c>
       <c r="J146" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$10</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$10</f>
         <v>512</v>
       </c>
       <c r="K146" s="7">
@@ -9613,7 +9651,7 @@
         <v>18090</v>
       </c>
       <c r="J147" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$9</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$9</f>
         <v>343</v>
       </c>
       <c r="K147" s="7">
@@ -9671,7 +9709,7 @@
         <v>18090</v>
       </c>
       <c r="J148" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$9</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$9</f>
         <v>343</v>
       </c>
       <c r="K148" s="7">
@@ -9729,7 +9767,7 @@
         <v>16110</v>
       </c>
       <c r="J149" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$9</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$9</f>
         <v>343</v>
       </c>
       <c r="K149" s="7">
@@ -9787,7 +9825,7 @@
         <v>25300</v>
       </c>
       <c r="J150" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$12</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$12</f>
         <v>1000</v>
       </c>
       <c r="K150" s="7">
@@ -9845,7 +9883,7 @@
         <v>22260</v>
       </c>
       <c r="J151" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$11</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$11</f>
         <v>729</v>
       </c>
       <c r="K151" s="7">
@@ -9903,7 +9941,7 @@
         <v>17370</v>
       </c>
       <c r="J152" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$9</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$9</f>
         <v>343</v>
       </c>
       <c r="K152" s="7">
@@ -9961,7 +9999,7 @@
         <v>25300</v>
       </c>
       <c r="J153" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$12</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$12</f>
         <v>1000</v>
       </c>
       <c r="K153" s="7">
@@ -10019,7 +10057,7 @@
         <v>22260</v>
       </c>
       <c r="J154" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$11</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$11</f>
         <v>729</v>
       </c>
       <c r="K154" s="7">
@@ -10077,7 +10115,7 @@
         <v>17370</v>
       </c>
       <c r="J155" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$9</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$9</f>
         <v>343</v>
       </c>
       <c r="K155" s="7">
@@ -10135,7 +10173,7 @@
         <v>15420</v>
       </c>
       <c r="J156" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$8</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$8</f>
         <v>216</v>
       </c>
       <c r="K156" s="7">
@@ -10193,7 +10231,7 @@
         <v>17010</v>
       </c>
       <c r="J157" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$9</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$9</f>
         <v>343</v>
       </c>
       <c r="K157" s="7">
@@ -10251,7 +10289,7 @@
         <v>15420</v>
       </c>
       <c r="J158" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$8</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$8</f>
         <v>216</v>
       </c>
       <c r="K158" s="7">
@@ -10309,7 +10347,7 @@
         <v>19630</v>
       </c>
       <c r="J159" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$10</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$10</f>
         <v>512</v>
       </c>
       <c r="K159" s="7">
@@ -10367,7 +10405,7 @@
         <v>17830</v>
       </c>
       <c r="J160" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$10</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$10</f>
         <v>512</v>
       </c>
       <c r="K160" s="7">
@@ -10425,7 +10463,7 @@
         <v>17830</v>
       </c>
       <c r="J161" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$10</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$10</f>
         <v>512</v>
       </c>
       <c r="K161" s="7">
@@ -10483,7 +10521,7 @@
         <v>15570</v>
       </c>
       <c r="J162" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$9</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$9</f>
         <v>343</v>
       </c>
       <c r="K162" s="7">
@@ -10541,7 +10579,7 @@
         <v>26020</v>
       </c>
       <c r="J163" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$12</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$12</f>
         <v>1000</v>
       </c>
       <c r="K163" s="7">
@@ -10599,7 +10637,7 @@
         <v>22980</v>
       </c>
       <c r="J164" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$11</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$11</f>
         <v>729</v>
       </c>
       <c r="K164" s="7">
@@ -10657,7 +10695,7 @@
         <v>20350</v>
       </c>
       <c r="J165" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$10</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$10</f>
         <v>512</v>
       </c>
       <c r="K165" s="7">
@@ -10715,7 +10753,7 @@
         <v>20350</v>
       </c>
       <c r="J166" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$10</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$10</f>
         <v>512</v>
       </c>
       <c r="K166" s="7">
@@ -10773,7 +10811,7 @@
         <v>18090</v>
       </c>
       <c r="J167" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$9</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$9</f>
         <v>343</v>
       </c>
       <c r="K167" s="7">
@@ -10831,7 +10869,7 @@
         <v>18090</v>
       </c>
       <c r="J168" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$9</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$9</f>
         <v>343</v>
       </c>
       <c r="K168" s="7">
@@ -10889,7 +10927,7 @@
         <v>16110</v>
       </c>
       <c r="J169" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$9</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$9</f>
         <v>343</v>
       </c>
       <c r="K169" s="7">
@@ -10947,7 +10985,7 @@
         <v>25300</v>
       </c>
       <c r="J170" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$12</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$12</f>
         <v>1000</v>
       </c>
       <c r="K170" s="7">
@@ -11005,7 +11043,7 @@
         <v>22260</v>
       </c>
       <c r="J171" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$11</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$11</f>
         <v>729</v>
       </c>
       <c r="K171" s="7">
@@ -11063,7 +11101,7 @@
         <v>17370</v>
       </c>
       <c r="J172" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$9</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$9</f>
         <v>343</v>
       </c>
       <c r="K172" s="7">
@@ -11121,7 +11159,7 @@
         <v>25300</v>
       </c>
       <c r="J173" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$12</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$12</f>
         <v>1000</v>
       </c>
       <c r="K173" s="7">
@@ -11179,7 +11217,7 @@
         <v>22260</v>
       </c>
       <c r="J174" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$11</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$11</f>
         <v>729</v>
       </c>
       <c r="K174" s="7">
@@ -11237,7 +11275,7 @@
         <v>17370</v>
       </c>
       <c r="J175" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$9</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$9</f>
         <v>343</v>
       </c>
       <c r="K175" s="7">
@@ -11295,7 +11333,7 @@
         <v>15420</v>
       </c>
       <c r="J176" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$8</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$8</f>
         <v>216</v>
       </c>
       <c r="K176" s="7">
@@ -11353,7 +11391,7 @@
         <v>17010</v>
       </c>
       <c r="J177" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$9</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$9</f>
         <v>343</v>
       </c>
       <c r="K177" s="7">
@@ -11411,7 +11449,7 @@
         <v>15420</v>
       </c>
       <c r="J178" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$8</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$8</f>
         <v>216</v>
       </c>
       <c r="K178" s="7">
@@ -11469,7 +11507,7 @@
         <v>19630</v>
       </c>
       <c r="J179" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$10</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$10</f>
         <v>512</v>
       </c>
       <c r="K179" s="7">
@@ -11527,7 +11565,7 @@
         <v>17830</v>
       </c>
       <c r="J180" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$10</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$10</f>
         <v>512</v>
       </c>
       <c r="K180" s="7">
@@ -11585,7 +11623,7 @@
         <v>17830</v>
       </c>
       <c r="J181" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$10</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$10</f>
         <v>512</v>
       </c>
       <c r="K181" s="7">
@@ -11643,7 +11681,7 @@
         <v>15570</v>
       </c>
       <c r="J182" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$9</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$9</f>
         <v>343</v>
       </c>
       <c r="K182" s="7">
@@ -11701,7 +11739,7 @@
         <v>26020</v>
       </c>
       <c r="J183" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$12</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$12</f>
         <v>1000</v>
       </c>
       <c r="K183" s="7">
@@ -11759,7 +11797,7 @@
         <v>22980</v>
       </c>
       <c r="J184" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$11</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$11</f>
         <v>729</v>
       </c>
       <c r="K184" s="7">
@@ -11817,7 +11855,7 @@
         <v>20350</v>
       </c>
       <c r="J185" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$10</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$10</f>
         <v>512</v>
       </c>
       <c r="K185" s="7">
@@ -11875,7 +11913,7 @@
         <v>20350</v>
       </c>
       <c r="J186" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$10</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$10</f>
         <v>512</v>
       </c>
       <c r="K186" s="7">
@@ -11933,7 +11971,7 @@
         <v>18090</v>
       </c>
       <c r="J187" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$9</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$9</f>
         <v>343</v>
       </c>
       <c r="K187" s="7">
@@ -11991,7 +12029,7 @@
         <v>18090</v>
       </c>
       <c r="J188" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$9</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$9</f>
         <v>343</v>
       </c>
       <c r="K188" s="7">
@@ -12049,7 +12087,7 @@
         <v>16110</v>
       </c>
       <c r="J189" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$9</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$9</f>
         <v>343</v>
       </c>
       <c r="K189" s="7">
@@ -12107,7 +12145,7 @@
         <v>25300</v>
       </c>
       <c r="J190" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$12</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$12</f>
         <v>1000</v>
       </c>
       <c r="K190" s="7">
@@ -12165,7 +12203,7 @@
         <v>22260</v>
       </c>
       <c r="J191" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$11</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$11</f>
         <v>729</v>
       </c>
       <c r="K191" s="7">
@@ -12223,7 +12261,7 @@
         <v>17370</v>
       </c>
       <c r="J192" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$9</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$9</f>
         <v>343</v>
       </c>
       <c r="K192" s="7">
@@ -12281,7 +12319,7 @@
         <v>25300</v>
       </c>
       <c r="J193" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$12</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$12</f>
         <v>1000</v>
       </c>
       <c r="K193" s="7">
@@ -12339,7 +12377,7 @@
         <v>22260</v>
       </c>
       <c r="J194" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$11</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$11</f>
         <v>729</v>
       </c>
       <c r="K194" s="7">
@@ -12397,7 +12435,7 @@
         <v>17370</v>
       </c>
       <c r="J195" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$9</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$9</f>
         <v>343</v>
       </c>
       <c r="K195" s="7">
@@ -12455,7 +12493,7 @@
         <v>15420</v>
       </c>
       <c r="J196" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$8</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$8</f>
         <v>216</v>
       </c>
       <c r="K196" s="7">
@@ -12513,7 +12551,7 @@
         <v>17010</v>
       </c>
       <c r="J197" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$9</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$9</f>
         <v>343</v>
       </c>
       <c r="K197" s="7">
@@ -12571,7 +12609,7 @@
         <v>15420</v>
       </c>
       <c r="J198" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$8</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$8</f>
         <v>216</v>
       </c>
       <c r="K198" s="7">
@@ -12629,7 +12667,7 @@
         <v>19630</v>
       </c>
       <c r="J199" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$10</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$10</f>
         <v>512</v>
       </c>
       <c r="K199" s="7">
@@ -12687,7 +12725,7 @@
         <v>17830</v>
       </c>
       <c r="J200" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$10</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$10</f>
         <v>512</v>
       </c>
       <c r="K200" s="7">
@@ -12745,7 +12783,7 @@
         <v>17830</v>
       </c>
       <c r="J201" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$10</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$10</f>
         <v>512</v>
       </c>
       <c r="K201" s="7">
@@ -12803,7 +12841,7 @@
         <v>15570</v>
       </c>
       <c r="J202" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$9</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$9</f>
         <v>343</v>
       </c>
       <c r="K202" s="7">
@@ -12861,7 +12899,7 @@
         <v>26020</v>
       </c>
       <c r="J203" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$12</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$12</f>
         <v>1000</v>
       </c>
       <c r="K203" s="7">
@@ -12919,7 +12957,7 @@
         <v>22980</v>
       </c>
       <c r="J204" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$11</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$11</f>
         <v>729</v>
       </c>
       <c r="K204" s="7">
@@ -12977,7 +13015,7 @@
         <v>20350</v>
       </c>
       <c r="J205" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$10</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$10</f>
         <v>512</v>
       </c>
       <c r="K205" s="7">
@@ -13035,7 +13073,7 @@
         <v>20350</v>
       </c>
       <c r="J206" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$10</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$10</f>
         <v>512</v>
       </c>
       <c r="K206" s="7">
@@ -13093,7 +13131,7 @@
         <v>18090</v>
       </c>
       <c r="J207" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$9</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$9</f>
         <v>343</v>
       </c>
       <c r="K207" s="7">
@@ -13151,7 +13189,7 @@
         <v>18090</v>
       </c>
       <c r="J208" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$9</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$9</f>
         <v>343</v>
       </c>
       <c r="K208" s="7">
@@ -13209,7 +13247,7 @@
         <v>16110</v>
       </c>
       <c r="J209" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$9</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$9</f>
         <v>343</v>
       </c>
       <c r="K209" s="7">
@@ -13267,7 +13305,7 @@
         <v>25300</v>
       </c>
       <c r="J210" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$12</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$12</f>
         <v>1000</v>
       </c>
       <c r="K210" s="7">
@@ -13325,7 +13363,7 @@
         <v>22260</v>
       </c>
       <c r="J211" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$11</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$11</f>
         <v>729</v>
       </c>
       <c r="K211" s="7">
@@ -13383,7 +13421,7 @@
         <v>17370</v>
       </c>
       <c r="J212" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$9</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$9</f>
         <v>343</v>
       </c>
       <c r="K212" s="7">
@@ -13441,7 +13479,7 @@
         <v>25300</v>
       </c>
       <c r="J213" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$12</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$12</f>
         <v>1000</v>
       </c>
       <c r="K213" s="7">
@@ -13499,7 +13537,7 @@
         <v>22260</v>
       </c>
       <c r="J214" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$11</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$11</f>
         <v>729</v>
       </c>
       <c r="K214" s="7">
@@ -13557,7 +13595,7 @@
         <v>17370</v>
       </c>
       <c r="J215" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$9</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$9</f>
         <v>343</v>
       </c>
       <c r="K215" s="7">
@@ -13615,7 +13653,7 @@
         <v>15420</v>
       </c>
       <c r="J216" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$8</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$8</f>
         <v>216</v>
       </c>
       <c r="K216" s="7">
@@ -13673,7 +13711,7 @@
         <v>17010</v>
       </c>
       <c r="J217" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$9</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$9</f>
         <v>343</v>
       </c>
       <c r="K217" s="7">
@@ -13731,7 +13769,7 @@
         <v>15420</v>
       </c>
       <c r="J218" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$8</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$8</f>
         <v>216</v>
       </c>
       <c r="K218" s="7">
@@ -13789,7 +13827,7 @@
         <v>19630</v>
       </c>
       <c r="J219" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$10</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$10</f>
         <v>512</v>
       </c>
       <c r="K219" s="7">
@@ -13847,7 +13885,7 @@
         <v>17830</v>
       </c>
       <c r="J220" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$10</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$10</f>
         <v>512</v>
       </c>
       <c r="K220" s="7">
@@ -13905,7 +13943,7 @@
         <v>17830</v>
       </c>
       <c r="J221" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$10</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$10</f>
         <v>512</v>
       </c>
       <c r="K221" s="7">
@@ -13963,7 +14001,7 @@
         <v>15570</v>
       </c>
       <c r="J222" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$9</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$9</f>
         <v>343</v>
       </c>
       <c r="K222" s="7">
@@ -14021,7 +14059,7 @@
         <v>26020</v>
       </c>
       <c r="J223" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$12</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$12</f>
         <v>1000</v>
       </c>
       <c r="K223" s="7">
@@ -14079,7 +14117,7 @@
         <v>22980</v>
       </c>
       <c r="J224" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$11</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$11</f>
         <v>729</v>
       </c>
       <c r="K224" s="7">
@@ -14137,7 +14175,7 @@
         <v>20350</v>
       </c>
       <c r="J225" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$10</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$10</f>
         <v>512</v>
       </c>
       <c r="K225" s="7">
@@ -14195,7 +14233,7 @@
         <v>20350</v>
       </c>
       <c r="J226" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$10</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$10</f>
         <v>512</v>
       </c>
       <c r="K226" s="7">
@@ -14253,7 +14291,7 @@
         <v>18090</v>
       </c>
       <c r="J227" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$9</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$9</f>
         <v>343</v>
       </c>
       <c r="K227" s="7">
@@ -14311,7 +14349,7 @@
         <v>18090</v>
       </c>
       <c r="J228" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$9</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$9</f>
         <v>343</v>
       </c>
       <c r="K228" s="7">
@@ -14369,7 +14407,7 @@
         <v>16110</v>
       </c>
       <c r="J229" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$9</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$9</f>
         <v>343</v>
       </c>
       <c r="K229" s="7">
@@ -14427,7 +14465,7 @@
         <v>25300</v>
       </c>
       <c r="J230" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$12</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$12</f>
         <v>1000</v>
       </c>
       <c r="K230" s="7">
@@ -14485,7 +14523,7 @@
         <v>22260</v>
       </c>
       <c r="J231" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$11</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$11</f>
         <v>729</v>
       </c>
       <c r="K231" s="7">
@@ -14543,7 +14581,7 @@
         <v>17370</v>
       </c>
       <c r="J232" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$9</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$9</f>
         <v>343</v>
       </c>
       <c r="K232" s="7">
@@ -14601,7 +14639,7 @@
         <v>25300</v>
       </c>
       <c r="J233" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$12</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$12</f>
         <v>1000</v>
       </c>
       <c r="K233" s="7">
@@ -14659,7 +14697,7 @@
         <v>22260</v>
       </c>
       <c r="J234" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$11</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$11</f>
         <v>729</v>
       </c>
       <c r="K234" s="7">
@@ -14717,7 +14755,7 @@
         <v>17370</v>
       </c>
       <c r="J235" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$9</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$9</f>
         <v>343</v>
       </c>
       <c r="K235" s="7">
@@ -14775,7 +14813,7 @@
         <v>15420</v>
       </c>
       <c r="J236" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$8</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$8</f>
         <v>216</v>
       </c>
       <c r="K236" s="7">
@@ -14833,7 +14871,7 @@
         <v>17010</v>
       </c>
       <c r="J237" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$9</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$9</f>
         <v>343</v>
       </c>
       <c r="K237" s="7">
@@ -14891,7 +14929,7 @@
         <v>15420</v>
       </c>
       <c r="J238" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$8</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$8</f>
         <v>216</v>
       </c>
       <c r="K238" s="7">
@@ -14949,7 +14987,7 @@
         <v>19630</v>
       </c>
       <c r="J239" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$10</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$10</f>
         <v>512</v>
       </c>
       <c r="K239" s="7">
@@ -15007,7 +15045,7 @@
         <v>17830</v>
       </c>
       <c r="J240" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$10</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$10</f>
         <v>512</v>
       </c>
       <c r="K240" s="7">
@@ -15065,7 +15103,7 @@
         <v>17830</v>
       </c>
       <c r="J241" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$10</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$10</f>
         <v>512</v>
       </c>
       <c r="K241" s="7">
@@ -15123,7 +15161,7 @@
         <v>15570</v>
       </c>
       <c r="J242" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$9</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$9</f>
         <v>343</v>
       </c>
       <c r="K242" s="7">
@@ -15181,7 +15219,7 @@
         <v>12180</v>
       </c>
       <c r="J243" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$8</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$8</f>
         <v>216</v>
       </c>
       <c r="K243" s="13">
@@ -15239,7 +15277,7 @@
         <v>12180</v>
       </c>
       <c r="J244" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$8</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$8</f>
         <v>216</v>
       </c>
       <c r="K244" s="7">
@@ -15297,7 +15335,7 @@
         <v>12180</v>
       </c>
       <c r="J245" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$8</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$8</f>
         <v>216</v>
       </c>
       <c r="K245" s="7">
@@ -15355,7 +15393,7 @@
         <v>12180</v>
       </c>
       <c r="J246" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$8</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$8</f>
         <v>216</v>
       </c>
       <c r="K246" s="7">
@@ -15413,7 +15451,7 @@
         <v>12180</v>
       </c>
       <c r="J247" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$8</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$8</f>
         <v>216</v>
       </c>
       <c r="K247" s="7">
@@ -15471,7 +15509,7 @@
         <v>12180</v>
       </c>
       <c r="J248" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$8</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$8</f>
         <v>216</v>
       </c>
       <c r="K248" s="7">
@@ -15529,7 +15567,7 @@
         <v>12180</v>
       </c>
       <c r="J249" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$8</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$8</f>
         <v>216</v>
       </c>
       <c r="K249" s="7">
@@ -15587,7 +15625,7 @@
         <v>12180</v>
       </c>
       <c r="J250" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$8</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$8</f>
         <v>216</v>
       </c>
       <c r="K250" s="7">
@@ -15645,7 +15683,7 @@
         <v>12180</v>
       </c>
       <c r="J251" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$8</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$8</f>
         <v>216</v>
       </c>
       <c r="K251" s="7">
@@ -15703,7 +15741,7 @@
         <v>12180</v>
       </c>
       <c r="J252" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$8</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$8</f>
         <v>216</v>
       </c>
       <c r="K252" s="7">
@@ -15761,7 +15799,7 @@
         <v>12180</v>
       </c>
       <c r="J253" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$8</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$8</f>
         <v>216</v>
       </c>
       <c r="K253" s="7">
@@ -15819,7 +15857,7 @@
         <v>12180</v>
       </c>
       <c r="J254" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$8</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$8</f>
         <v>216</v>
       </c>
       <c r="K254" s="7">
@@ -15877,7 +15915,7 @@
         <v>22060</v>
       </c>
       <c r="J255" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$12</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$12</f>
         <v>1000</v>
       </c>
       <c r="K255" s="13">
@@ -15935,7 +15973,7 @@
         <v>22060</v>
       </c>
       <c r="J256" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$12</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$12</f>
         <v>1000</v>
       </c>
       <c r="K256" s="7">
@@ -15993,7 +16031,7 @@
         <v>22060</v>
       </c>
       <c r="J257" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$12</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$12</f>
         <v>1000</v>
       </c>
       <c r="K257" s="7">
@@ -16051,7 +16089,7 @@
         <v>22060</v>
       </c>
       <c r="J258" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$12</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$12</f>
         <v>1000</v>
       </c>
       <c r="K258" s="7">
@@ -16109,7 +16147,7 @@
         <v>22060</v>
       </c>
       <c r="J259" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$12</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$12</f>
         <v>1000</v>
       </c>
       <c r="K259" s="7">
@@ -16167,7 +16205,7 @@
         <v>22060</v>
       </c>
       <c r="J260" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$12</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$12</f>
         <v>1000</v>
       </c>
       <c r="K260" s="7">
@@ -16225,7 +16263,7 @@
         <v>22060</v>
       </c>
       <c r="J261" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$12</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$12</f>
         <v>1000</v>
       </c>
       <c r="K261" s="7">
@@ -16283,7 +16321,7 @@
         <v>22060</v>
       </c>
       <c r="J262" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$12</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$12</f>
         <v>1000</v>
       </c>
       <c r="K262" s="7">
@@ -16341,7 +16379,7 @@
         <v>22060</v>
       </c>
       <c r="J263" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$12</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$12</f>
         <v>1000</v>
       </c>
       <c r="K263" s="7">
@@ -16399,7 +16437,7 @@
         <v>22060</v>
       </c>
       <c r="J264" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$12</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$12</f>
         <v>1000</v>
       </c>
       <c r="K264" s="7">
@@ -16457,7 +16495,7 @@
         <v>22060</v>
       </c>
       <c r="J265" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$12</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$12</f>
         <v>1000</v>
       </c>
       <c r="K265" s="7">
@@ -16515,7 +16553,7 @@
         <v>22060</v>
       </c>
       <c r="J266" s="7">
-        <f>'Зав-ть коэффициента от разряда'!$C$12</f>
+        <f>'Зав-ть Коэффициента от Разряда'!$C$12</f>
         <v>1000</v>
       </c>
       <c r="K266" s="7">
@@ -16563,8 +16601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16575,35 +16613,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="42" t="s">
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="43" t="s">
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="37" t="s">
+      <c r="M1" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="40"/>
+      <c r="A2" s="36"/>
       <c r="B2" s="33" t="s">
         <v>36</v>
       </c>
@@ -16628,13 +16666,13 @@
       <c r="I2" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="43"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
+      <c r="J2" s="39"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="27">
@@ -16671,12 +16709,12 @@
         <f>A3*E3+B3*F3+C3*G3+D3*H3+I3</f>
         <v>8870.0000006699993</v>
       </c>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="27">
@@ -16718,12 +16756,12 @@
         <f t="shared" ref="J4:J12" si="7">A4*E4+B4*F4+C4*G4+D4*H4+I4</f>
         <v>10460.00000272</v>
       </c>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="37"/>
-      <c r="R4" s="37"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="41"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="27">
@@ -16765,12 +16803,12 @@
         <f t="shared" si="7"/>
         <v>12180.00000627</v>
       </c>
-      <c r="M5" s="37"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="37"/>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="37"/>
-      <c r="R5" s="37"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="41"/>
+      <c r="R5" s="41"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="27">
@@ -16812,12 +16850,12 @@
         <f t="shared" si="7"/>
         <v>14130.00001152</v>
       </c>
-      <c r="M6" s="37"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="37"/>
-      <c r="Q6" s="37"/>
-      <c r="R6" s="37"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="41"/>
+      <c r="R6" s="41"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="27">
@@ -16859,14 +16897,14 @@
         <f t="shared" si="7"/>
         <v>16390.000018750001</v>
       </c>
-      <c r="M7" s="38" t="s">
+      <c r="M7" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="N7" s="38"/>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="38"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="42"/>
+      <c r="R7" s="42"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="27">
@@ -16908,12 +16946,12 @@
         <f t="shared" si="7"/>
         <v>19020.000028319999</v>
       </c>
-      <c r="M8" s="38"/>
-      <c r="N8" s="38"/>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="38"/>
-      <c r="R8" s="38"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="42"/>
+      <c r="R8" s="42"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="27">
@@ -16955,12 +16993,12 @@
         <f t="shared" si="7"/>
         <v>22060.000040669998</v>
       </c>
-      <c r="M9" s="38"/>
-      <c r="N9" s="38"/>
-      <c r="O9" s="38"/>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="38"/>
-      <c r="R9" s="38"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="42"/>
+      <c r="R9" s="42"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="27">
@@ -17002,14 +17040,14 @@
         <f t="shared" si="7"/>
         <v>25530.000056319997</v>
       </c>
-      <c r="M10" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="N10" s="55"/>
-      <c r="O10" s="55"/>
-      <c r="P10" s="55"/>
-      <c r="Q10" s="55"/>
-      <c r="R10" s="55"/>
+      <c r="M10" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="N10" s="43"/>
+      <c r="O10" s="43"/>
+      <c r="P10" s="43"/>
+      <c r="Q10" s="43"/>
+      <c r="R10" s="43"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="27">
@@ -17051,12 +17089,12 @@
         <f t="shared" si="7"/>
         <v>29430.000075870001</v>
       </c>
-      <c r="M11" s="55"/>
-      <c r="N11" s="55"/>
-      <c r="O11" s="55"/>
-      <c r="P11" s="55"/>
-      <c r="Q11" s="55"/>
-      <c r="R11" s="55"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="43"/>
+      <c r="O11" s="43"/>
+      <c r="P11" s="43"/>
+      <c r="Q11" s="43"/>
+      <c r="R11" s="43"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="27">
@@ -17098,30 +17136,30 @@
         <f t="shared" si="7"/>
         <v>33740.000100000005</v>
       </c>
-      <c r="M12" s="55"/>
-      <c r="N12" s="55"/>
-      <c r="O12" s="55"/>
-      <c r="P12" s="55"/>
-      <c r="Q12" s="55"/>
-      <c r="R12" s="55"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="43"/>
+      <c r="O12" s="43"/>
+      <c r="P12" s="43"/>
+      <c r="Q12" s="43"/>
+      <c r="R12" s="43"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="M13" s="39"/>
-      <c r="N13" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="O13" s="37"/>
-      <c r="P13" s="37"/>
-      <c r="Q13" s="37"/>
-      <c r="R13" s="37"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="O13" s="41"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="41"/>
+      <c r="R13" s="41"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="M14" s="38"/>
-      <c r="N14" s="37"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="37"/>
-      <c r="Q14" s="37"/>
-      <c r="R14" s="37"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="41"/>
+      <c r="P14" s="41"/>
+      <c r="Q14" s="41"/>
+      <c r="R14" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -17147,8 +17185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W402"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W26" sqref="W26"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17159,36 +17197,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="44" t="s">
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="43" t="s">
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="M1" s="37" t="s">
+      <c r="M1" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
       <c r="W1" s="14"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A2" s="40"/>
+      <c r="A2" s="36"/>
       <c r="B2" s="33" t="s">
         <v>36</v>
       </c>
@@ -17213,13 +17251,13 @@
       <c r="I2" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="43"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
+      <c r="J2" s="39"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
       <c r="U2" s="14"/>
       <c r="V2" s="14"/>
       <c r="W2" s="14"/>
@@ -17259,12 +17297,12 @@
         <f>A3*E3+B3*F3+C3*G3+D3*H3+I3</f>
         <v>5.2176470543220006</v>
       </c>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
       <c r="U3" s="14"/>
       <c r="V3" s="14"/>
       <c r="W3" s="14"/>
@@ -17309,12 +17347,12 @@
         <f t="shared" ref="J4:J12" si="4">A4*E4+B4*F4+C4*G4+D4*H4+I4</f>
         <v>6.1529411719520004</v>
       </c>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="37"/>
-      <c r="R4" s="37"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="41"/>
       <c r="U4" s="14"/>
       <c r="V4" s="14"/>
       <c r="W4" s="14"/>
@@ -17359,12 +17397,12 @@
         <f t="shared" si="4"/>
         <v>7.1647058784819997</v>
       </c>
-      <c r="M5" s="37"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="37"/>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="37"/>
-      <c r="R5" s="37"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="41"/>
+      <c r="R5" s="41"/>
       <c r="U5" s="14"/>
       <c r="V5" s="14"/>
       <c r="W5" s="14"/>
@@ -17409,12 +17447,12 @@
         <f t="shared" si="4"/>
         <v>8.3117647036320008</v>
       </c>
-      <c r="M6" s="37"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="37"/>
-      <c r="Q6" s="37"/>
-      <c r="R6" s="37"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="41"/>
+      <c r="R6" s="41"/>
       <c r="U6" s="14"/>
       <c r="V6" s="14"/>
       <c r="W6" s="14"/>
@@ -17459,14 +17497,14 @@
         <f t="shared" si="4"/>
         <v>9.6411764712499988</v>
       </c>
-      <c r="M7" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="N7" s="38"/>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="38"/>
+      <c r="M7" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="42"/>
+      <c r="R7" s="42"/>
       <c r="U7" s="14"/>
       <c r="V7" s="14"/>
       <c r="W7" s="14"/>
@@ -17511,12 +17549,12 @@
         <f t="shared" si="4"/>
         <v>11.188235299312002</v>
       </c>
-      <c r="M8" s="38"/>
-      <c r="N8" s="38"/>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="38"/>
-      <c r="R8" s="38"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="42"/>
+      <c r="R8" s="42"/>
       <c r="U8" s="14"/>
       <c r="V8" s="14"/>
       <c r="W8" s="14"/>
@@ -17561,12 +17599,12 @@
         <f t="shared" si="4"/>
         <v>12.976470599921999</v>
       </c>
-      <c r="M9" s="38"/>
-      <c r="N9" s="38"/>
-      <c r="O9" s="38"/>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="38"/>
-      <c r="R9" s="38"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="42"/>
+      <c r="R9" s="42"/>
       <c r="U9" s="14"/>
       <c r="V9" s="14"/>
       <c r="W9" s="14"/>
@@ -17611,14 +17649,14 @@
         <f t="shared" si="4"/>
         <v>15.017647079311999</v>
       </c>
-      <c r="M10" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="N10" s="37"/>
-      <c r="O10" s="37"/>
-      <c r="P10" s="37"/>
-      <c r="Q10" s="37"/>
-      <c r="R10" s="37"/>
+      <c r="M10" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="N10" s="43"/>
+      <c r="O10" s="43"/>
+      <c r="P10" s="43"/>
+      <c r="Q10" s="43"/>
+      <c r="R10" s="43"/>
       <c r="U10" s="14"/>
       <c r="V10" s="14"/>
       <c r="W10" s="14"/>
@@ -17663,12 +17701,12 @@
         <f t="shared" si="4"/>
         <v>17.311764737841997</v>
       </c>
-      <c r="M11" s="37"/>
-      <c r="N11" s="37"/>
-      <c r="O11" s="37"/>
-      <c r="P11" s="37"/>
-      <c r="Q11" s="37"/>
-      <c r="R11" s="37"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="43"/>
+      <c r="O11" s="43"/>
+      <c r="P11" s="43"/>
+      <c r="Q11" s="43"/>
+      <c r="R11" s="43"/>
       <c r="U11" s="14"/>
       <c r="V11" s="14"/>
       <c r="W11" s="14"/>
@@ -17713,36 +17751,36 @@
         <f t="shared" si="4"/>
         <v>19.847058869999998</v>
       </c>
-      <c r="M12" s="37"/>
-      <c r="N12" s="37"/>
-      <c r="O12" s="37"/>
-      <c r="P12" s="37"/>
-      <c r="Q12" s="37"/>
-      <c r="R12" s="37"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="43"/>
+      <c r="O12" s="43"/>
+      <c r="P12" s="43"/>
+      <c r="Q12" s="43"/>
+      <c r="R12" s="43"/>
       <c r="U12" s="14"/>
       <c r="V12" s="14"/>
       <c r="W12" s="14"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="M13" s="39"/>
-      <c r="N13" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="O13" s="37"/>
-      <c r="P13" s="37"/>
-      <c r="Q13" s="37"/>
-      <c r="R13" s="37"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="O13" s="41"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="41"/>
+      <c r="R13" s="41"/>
       <c r="U13" s="14"/>
       <c r="V13" s="14"/>
       <c r="W13" s="14"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="M14" s="38"/>
-      <c r="N14" s="37"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="37"/>
-      <c r="Q14" s="37"/>
-      <c r="R14" s="37"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="41"/>
+      <c r="P14" s="41"/>
+      <c r="Q14" s="41"/>
+      <c r="R14" s="41"/>
       <c r="U14" s="14"/>
       <c r="V14" s="14"/>
       <c r="W14" s="14"/>
@@ -19693,7 +19731,11 @@
     <mergeCell ref="M7:R9"/>
     <mergeCell ref="M10:R12"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="M10:R12" r:id="rId1" display="Ссылка на файл с исходным кодом расчётов"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -19720,59 +19762,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="51" t="s">
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="48" t="s">
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="52" t="s">
+      <c r="K1" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="47" t="s">
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" s="47" t="s">
+      <c r="Q1" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="47" t="s">
+      <c r="R1" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="S1" s="48" t="s">
+      <c r="S1" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="T1" s="49" t="s">
+      <c r="T1" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="U1" s="49" t="s">
+      <c r="U1" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="V1" s="50" t="s">
+      <c r="V1" s="55" t="s">
         <v>46</v>
       </c>
       <c r="W1" s="16"/>
-      <c r="X1" s="43" t="s">
+      <c r="X1" s="39" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A2" s="54"/>
+      <c r="A2" s="52"/>
       <c r="B2" s="27" t="s">
         <v>36</v>
       </c>
@@ -19797,7 +19839,7 @@
       <c r="I2" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="48"/>
+      <c r="J2" s="53"/>
       <c r="K2" s="20" t="s">
         <v>40</v>
       </c>
@@ -19813,15 +19855,15 @@
       <c r="O2" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="49"/>
-      <c r="V2" s="50"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
+      <c r="V2" s="55"/>
       <c r="W2" s="16"/>
-      <c r="X2" s="43"/>
+      <c r="X2" s="39"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="17">
@@ -19841,23 +19883,23 @@
         <v>1</v>
       </c>
       <c r="E3" s="29">
-        <f>'Зав-ть Оклада от разряда'!E3</f>
+        <f>'Зав-ть Оклада от Разряда'!E3</f>
         <v>1620</v>
       </c>
       <c r="F3" s="29">
-        <f>'Зав-ть Оклада от разряда'!F3</f>
+        <f>'Зав-ть Оклада от Разряда'!F3</f>
         <v>-64.166666000000006</v>
       </c>
       <c r="G3" s="29">
-        <f>'Зав-ть Оклада от разряда'!G3</f>
+        <f>'Зав-ть Оклада от Разряда'!G3</f>
         <v>25</v>
       </c>
       <c r="H3" s="29">
-        <f>'Зав-ть Оклада от разряда'!H3</f>
+        <f>'Зав-ть Оклада от Разряда'!H3</f>
         <v>-0.83333332999999998</v>
       </c>
       <c r="I3" s="29">
-        <f>'Зав-ть Оклада от разряда'!I3</f>
+        <f>'Зав-ть Оклада от Разряда'!I3</f>
         <v>7290</v>
       </c>
       <c r="J3" s="17">
@@ -19865,23 +19907,23 @@
         <v>8870.0000006699993</v>
       </c>
       <c r="K3" s="30">
-        <f>'Зав-ть коэффициента от разряда'!E3</f>
+        <f>'Зав-ть Коэффициента от Разряда'!E3</f>
         <v>0.95294117599999995</v>
       </c>
       <c r="L3" s="30">
-        <f>'Зав-ть коэффициента от разряда'!F3</f>
+        <f>'Зав-ть Коэффициента от Разряда'!F3</f>
         <v>-3.7745097999999998E-2</v>
       </c>
       <c r="M3" s="30">
-        <f>'Зав-ть коэффициента от разряда'!G3</f>
+        <f>'Зав-ть Коэффициента от Разряда'!G3</f>
         <v>1.47058824E-2</v>
       </c>
       <c r="N3" s="30">
-        <f>'Зав-ть коэффициента от разряда'!H3</f>
+        <f>'Зав-ть Коэффициента от Разряда'!H3</f>
         <v>-4.9019607800000005E-4</v>
       </c>
       <c r="O3" s="30">
-        <f>'Зав-ть коэффициента от разряда'!I3</f>
+        <f>'Зав-ть Коэффициента от Разряда'!I3</f>
         <v>4.2882352900000003</v>
       </c>
       <c r="P3" s="23">
@@ -20753,12 +20795,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="E1:I1"/>
-    <mergeCell ref="K1:O1"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="J1:J2"/>
     <mergeCell ref="X1:X2"/>
     <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="R1:R2"/>
@@ -20766,6 +20802,12 @@
     <mergeCell ref="T1:T2"/>
     <mergeCell ref="U1:U2"/>
     <mergeCell ref="V1:V2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="K1:O1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="J1:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
